--- a/Nuve/Resources/Tr/suffixes.xlsx
+++ b/Nuve/Resources/Tr/suffixes.xlsx
@@ -592,54 +592,27 @@
     <t>şAr</t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_U, </t>
-  </si>
-  <si>
     <t xml:space="preserve">un, ın, in, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_I, </t>
-  </si>
-  <si>
     <t xml:space="preserve">im, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_A, </t>
-  </si>
-  <si>
     <t xml:space="preserve">lar, ler, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_U, L_DUSME_UNLU, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_DONUSUM_U, L_DUSME_UNSUZ, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_DONUSUM_A, L_DONUSUM_I, </t>
-  </si>
-  <si>
     <t xml:space="preserve">ları, leri, </t>
   </si>
   <si>
     <t xml:space="preserve">a, e, ya, ye, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DUSME_UNSUZ, L_DONUSUM_A, </t>
-  </si>
-  <si>
     <t xml:space="preserve">a, e, na, ne, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DUSME_UNSUZ, L_DONUSUM_U, </t>
-  </si>
-  <si>
     <t xml:space="preserve">nı, ni, nu, nü, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_D, L_DONUSUM_A, </t>
-  </si>
-  <si>
     <t xml:space="preserve">nde, nda, </t>
   </si>
   <si>
@@ -649,9 +622,6 @@
     <t xml:space="preserve">yla, yle, la, le, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_D, L_DONUSUM_U, </t>
-  </si>
-  <si>
     <t xml:space="preserve">dır, dir, dur, dür, tır, tir, tur, tür, </t>
   </si>
   <si>
@@ -673,36 +643,24 @@
     <t xml:space="preserve">n, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_OZEL_BIZ_lIm, L_DONUSUM_I, </t>
-  </si>
-  <si>
     <t xml:space="preserve">k, lım, lim, </t>
   </si>
   <si>
     <t xml:space="preserve">nız, niz, nuz, nüz, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DUSME_UNSUZ, </t>
-  </si>
-  <si>
     <t xml:space="preserve">ken, yken, </t>
   </si>
   <si>
     <t xml:space="preserve">se, sa, yse, ysa, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DUSME_UNSUZ, L_DONUSUM_U, L_DONUSUM_D, </t>
-  </si>
-  <si>
     <t xml:space="preserve">ın, in, un, ün, yın, yin, yun, yün, </t>
   </si>
   <si>
     <t xml:space="preserve">ınız, iniz, unuz, ünüz, yınız, yiniz, yunuz, yünüz, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_U, L_DONUSUM_A, </t>
-  </si>
-  <si>
     <t xml:space="preserve">sınlar, sinler, sunlar, sünler, </t>
   </si>
   <si>
@@ -727,21 +685,12 @@
     <t xml:space="preserve">mış, miş, muş, müş, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_A, L_DUSME_UNSUZ, R_YUMUSAMA_kğ, </t>
-  </si>
-  <si>
     <t xml:space="preserve">acak, ecek, yacak, yecek, acağ, eceğ, yeceğ, yacağ, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_OZEL_UYOR, L_DONUSUM_U, </t>
-  </si>
-  <si>
     <t xml:space="preserve">ıyor, iyor, uyor, üyor, yor, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_OZEL_GZ, L_DUSME_UNLU_GZ, L_DONUSUM_U, L_DONUSUM_A, </t>
-  </si>
-  <si>
     <t xml:space="preserve">ar, er, ır, ir, ur, ür, r, z, </t>
   </si>
   <si>
@@ -778,24 +727,15 @@
     <t xml:space="preserve">mek, mak, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_A, L_DUSME_UNSUZ, </t>
-  </si>
-  <si>
     <t xml:space="preserve">an, en, yan, yen, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_A, L_DONUSUM_I, L_DUSME_UNSUZ, </t>
-  </si>
-  <si>
     <t xml:space="preserve">ası, esi, yası, yesi, </t>
   </si>
   <si>
     <t xml:space="preserve">asıca, esice, yasıca, yesice, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_D, L_DONUSUM_U, R_YUMUSAMA_kğ, </t>
-  </si>
-  <si>
     <t xml:space="preserve">maz, mez, </t>
   </si>
   <si>
@@ -805,30 +745,18 @@
     <t xml:space="preserve">arak, erek, yarak, yerek, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DUSME_UNSUZ, L_DONUSUM_A, L_DONUSUM_I, </t>
-  </si>
-  <si>
     <t xml:space="preserve">yasıya, yesiye, asıya, esiye, </t>
   </si>
   <si>
     <t xml:space="preserve">yıp, yip, yup, yüp, ıp, ip, up, üp, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DUSME_UNSUZ, L_DONUSUM_U, L_DONUSUM_A, </t>
-  </si>
-  <si>
     <t xml:space="preserve">yınca, yince, yünce, yunca, ınca, ince, ünce, unca, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_C, L_DONUSUM_A, L_DONUSUM_I, </t>
-  </si>
-  <si>
     <t xml:space="preserve">casına, cesine, çasına, çesine, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_D, L_DONUSUM_U, L_DONUSUM_A, </t>
-  </si>
-  <si>
     <t xml:space="preserve">dıkça, dikçe, dukça, dükçe, tıkça, tikçe, tukça, tükçe, </t>
   </si>
   <si>
@@ -847,15 +775,9 @@
     <t xml:space="preserve">yucu, yücü, yıcı, yici, ucu, ücü, ıcı, ici, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DUSME_UNLU, L_DONUSUM_U, </t>
-  </si>
-  <si>
     <t xml:space="preserve">n, ın, in, un, ün, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_U, L_DONUSUM_D, </t>
-  </si>
-  <si>
     <t xml:space="preserve">t, </t>
   </si>
   <si>
@@ -868,21 +790,12 @@
     <t xml:space="preserve">laş, leş, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_U, L_DONUSUM_C, </t>
-  </si>
-  <si>
     <t xml:space="preserve">cı, ci, cu, cü, çı, çi, çu, çü, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_U, L_DONUSUM_C, R_YUMUSAMA_kğ, </t>
-  </si>
-  <si>
     <t xml:space="preserve">cık, cik, cuk, cük, çık, çik, çuk, çük, cığ, ciğ, cuğ, cüğ, çığ, çiğ, çuğ, çüğ, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_U, R_YUMUSAMA_kğ, </t>
-  </si>
-  <si>
     <t xml:space="preserve">msı, msi, msu, msü, ımsı, imsi, umsu, ümsü, yumsu, </t>
   </si>
   <si>
@@ -895,9 +808,6 @@
     <t xml:space="preserve">nca, nce, </t>
   </si>
   <si>
-    <t xml:space="preserve">L_DONUSUM_C, L_DONUSUM_A, </t>
-  </si>
-  <si>
     <t xml:space="preserve">tı, ti, tu, tü, </t>
   </si>
   <si>
@@ -991,40 +901,1257 @@
     <t>ISIM_HAL</t>
   </si>
   <si>
-    <r>
-      <t>kitaptan, kalemden, masadan,</t>
+    <t>NNI_ABL3</t>
+  </si>
+  <si>
+    <t>kitabından, kaleminden, masasından</t>
+  </si>
+  <si>
+    <t>Bu ek de (n)U belirtme hâli gibi, zamirlerden ve iyelik eklerinden sonra gelir.</t>
+  </si>
+  <si>
+    <t>NNI_OBJ3</t>
+  </si>
+  <si>
+    <t>Soldaki misallerde görüldüğü gibi, zamirlerden ve iyelik eklerinden sonra kullanılır. IC_HAL_BELIRTME_(y)U eki 3. tekil şahıs iyelik eki ve bazı eklerden sonra y yardımcı sesi yerine n yardımcı aldığından ikinci bir ek tanımlamak durumunda kaldık.</t>
+  </si>
+  <si>
+    <t>ISIM_BELIRTME_I</t>
+  </si>
+  <si>
+    <t>NNI_OBJ</t>
+  </si>
+  <si>
+    <t>Bu belirtme hâli (akkuzatif) eki. 3. tekil şahıs iyelik eki ve bazı eklerden sonra ekin farklı bir versiyonu kullanılır.</t>
+  </si>
+  <si>
+    <t>ISIM_KALMA_DE</t>
+  </si>
+  <si>
+    <t>NNI_LOC</t>
+  </si>
+  <si>
+    <t>NNI_LOC3</t>
+  </si>
+  <si>
+    <t>kitabında, kaleminde, masasında</t>
+  </si>
+  <si>
+    <t>Aynı şekilde, iyelik eklerinden ve zamirlerden sonra gelen bulunma hâli, önüne -n yardımcı sesini alır.</t>
+  </si>
+  <si>
+    <t>ISIM_TAMLAYAN_IN</t>
+  </si>
+  <si>
+    <t>NNI_GEN</t>
+  </si>
+  <si>
+    <t>Bu eke ilgi hâli (genitif) veya "tamlayan eki" denilir.</t>
+  </si>
+  <si>
+    <t>ISIM_BIRLIKTELIK_LE</t>
+  </si>
+  <si>
+    <t>NNI_INC</t>
+  </si>
+  <si>
+    <t>Bir kelimede bulunan vasıta hâli eki (y)lA anlama göre hâl eki veya "ile" bağlacı görevinde bulunabilir. İsmi "yüklem"e bağlar. İle edatının ekleşmiş hâlidir. Elle kopardı, suyla içti vs. İle bağlacı ise "ve" yerine kullanılır; iki isim yahut fiili birbirine bağlar. Suyla hava örneğinde yla (ile) bağlaçtır.</t>
+  </si>
+  <si>
+    <t>ISIM_YONELME_E</t>
+  </si>
+  <si>
+    <t>NNI_DAT</t>
+  </si>
+  <si>
+    <t>NNI_DAT3</t>
+  </si>
+  <si>
+    <t>masasına, günlüğüne, evlerine</t>
+  </si>
+  <si>
+    <t>ISIM_SAHIPLIK_BEN_IM</t>
+  </si>
+  <si>
+    <t>NNI_POSS1s</t>
+  </si>
+  <si>
+    <t>ISIM_SAHIPLIK</t>
+  </si>
+  <si>
+    <t>suyum, nem, neyim</t>
+  </si>
+  <si>
+    <t>su ve ne kelimeleri, ayrıca su kelimesi ile biten bileşik kelimeler için istisnai bir durum mevcut</t>
+  </si>
+  <si>
+    <t>ISIM_SAHIPLIK_BIZ_IMIZ</t>
+  </si>
+  <si>
+    <t>NNI_POSS1p</t>
+  </si>
+  <si>
+    <t>suyumuz, nemiz, neyimiz</t>
+  </si>
+  <si>
+    <t>ISIM_SAHIPLIK_O_I</t>
+  </si>
+  <si>
+    <t>NNI_POSS3s</t>
+  </si>
+  <si>
+    <t>suyu,  birisi, kimisi, çoğusu,  neyi (nesi de olur)</t>
+  </si>
+  <si>
+    <t>Bu ekin diğer adı "tamlanan eki"dir. Üçüncü tekil şahıs iyelik eki kimi zaman üst üste gelebilir (Birisi, kimisi vs).  Zemberek'te bu ek ISIM_TAMLAMA_I ve ISIM_SAHIPLIK_O_I şeklinde iki ek olarak düşünülmüş ancak Leyla Karahan'ın "Türkçenin Söz Dizimi" isimli kitabına dayanarak tek bir ek olarak kabul ettik.</t>
+  </si>
+  <si>
+    <t>ISIM_SAHIPLIK_ONLAR_LERI</t>
+  </si>
+  <si>
+    <t>NNI_POSS3p</t>
+  </si>
+  <si>
+    <t>ISIM_SAHIPLIK_SEN_IN</t>
+  </si>
+  <si>
+    <t>NNI_POSS2s</t>
+  </si>
+  <si>
+    <t>suyun, nen, neyin</t>
+  </si>
+  <si>
+    <t>ISIM_SAHIPLIK_SIZ_INIZ</t>
+  </si>
+  <si>
+    <t>NNI_POSS2p</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> suyunuz, neniz, neyiniz</t>
+  </si>
+  <si>
+    <t>benim, bizim</t>
+  </si>
+  <si>
+    <t>Şahıs zamirleri bu ekten sonra vasıta eki alabildiklerinden, ayrıca 1. şahıs zamirleri ilgi ekini farklı biçimde aldığı için IC_HAL_ILGI ekinden ayrı olarak tanımlandı</t>
+  </si>
+  <si>
+    <t>senin, onun, sizin, onların</t>
+  </si>
+  <si>
+    <t>IMEK_HIKAYE_DI</t>
+  </si>
+  <si>
+    <t>VVI_XPAST</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>EK_FIIL_ZAMAN</t>
+  </si>
+  <si>
+    <t>Emir kipinin hikâyesi yoktur.</t>
+  </si>
+  <si>
+    <t>IMEK_RIVAYET_MIS</t>
+  </si>
+  <si>
+    <t>VVI_XDUBT</t>
+  </si>
+  <si>
+    <t>Emir kipinin rivayeti yoktur.</t>
+  </si>
+  <si>
+    <t>ISIM_KISI_BEN_IM</t>
+  </si>
+  <si>
+    <t>EK_FIIL_SAHIS</t>
+  </si>
+  <si>
+    <t>yalnızsam</t>
+  </si>
+  <si>
+    <t>ISIM_KISI_BIZ_IZ</t>
+  </si>
+  <si>
+    <t>ağaysak, dargınsak</t>
+  </si>
+  <si>
+    <t>ISIM_KISI_ONLAR_LER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ağalar, paşalar, yalnızdırlar, yalnızlardır, zengindirler, zenginlerdir, yorgundurlar, yorgunlardır, çocukturlar, çocuklardır, süslüdürler, gençtirler, Türk'türler, karışıktırlar </t>
+  </si>
+  <si>
+    <t>ISIM_KISI_SEN_SIN</t>
+  </si>
+  <si>
+    <t>yalnızsan</t>
+  </si>
+  <si>
+    <t>ISIM_KISI_SIZ_SINIZ</t>
+  </si>
+  <si>
+    <t>hastaydınız, gençtiniz, çocuktunuz, üzgündünüz</t>
+  </si>
+  <si>
+    <t>IMEK_SART_SE</t>
+  </si>
+  <si>
+    <t>VVI_XCOND</t>
+  </si>
+  <si>
+    <t>Emir, şart ve istek kiplerinin "şart"ı yoktur.</t>
+  </si>
+  <si>
+    <t>EK_FIIL_O_DUR</t>
+  </si>
+  <si>
+    <t>VVI_DHR</t>
+  </si>
+  <si>
+    <t>EK_FIIL</t>
+  </si>
+  <si>
+    <t>Bu ek Haftalardır, günlerdir ya da 2 saattir bekliyorum gibi zarf da yapar.</t>
+  </si>
+  <si>
+    <t>Bildirme ekidir. Bazı kelimelerde ek-fiille kalıplaşmıştır. Güzeldir, gelmiştir vs. örneklerde yükleme geliyor.  İki yıldır gibi örneklerdeki ek de bildirme ekidir.</t>
+  </si>
+  <si>
+    <t>IMEK_ZAMAN_KEN</t>
+  </si>
+  <si>
+    <t>VVI_XADV1</t>
+  </si>
+  <si>
+    <t>yürürken, evdeyken, kalırken, buradayken</t>
+  </si>
+  <si>
+    <t>Fiillere geldiğinde zarf fiil  yapar. "giderken düştüm" gibi.</t>
+  </si>
+  <si>
+    <t>FIIL_EMIR_SIZ_IN</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Kip</t>
+  </si>
+  <si>
+    <t>gelin, yapın, bulun, görün, anlayın, bekleyin, okuyun</t>
+  </si>
+  <si>
+    <t>FIIL_EMIR_SIZRESMI_INIZ</t>
+  </si>
+  <si>
+    <t>bakınız, geliniz, bulunuz, görünüz, anlayınız, bekleyiniz, okuyunuz</t>
+  </si>
+  <si>
+    <t>FIIL_EMIR_O_SIN</t>
+  </si>
+  <si>
+    <t>gelsin, yapsın, okusun, görsün</t>
+  </si>
+  <si>
+    <t>FIIL_EMIR_ONLAR_SINLER</t>
+  </si>
+  <si>
+    <t>gelsinler, yapsınlar, okusunlar, görsünler</t>
+  </si>
+  <si>
+    <t>FIIL_ZORUNLULUK_MELI</t>
+  </si>
+  <si>
+    <t>VVI_TNECE</t>
+  </si>
+  <si>
+    <t>gelmeli, kalmalı</t>
+  </si>
+  <si>
+    <t>FIIL_ISTEK_E</t>
+  </si>
+  <si>
+    <t>VVI_TOPTA</t>
+  </si>
+  <si>
+    <t>baka, vere, anlaya, özleye, geleydi, sataymış, gelmeyeydi, gitmeyeydi</t>
+  </si>
+  <si>
+    <t>FIIL_ISTEK_SENE</t>
+  </si>
+  <si>
+    <t>yapsana, gelsene</t>
+  </si>
+  <si>
+    <t>FIIL_ISTEK_SENIZE</t>
+  </si>
+  <si>
+    <t>yapsanıza, gelsenize</t>
+  </si>
+  <si>
+    <t>FIIL_SART_SE</t>
+  </si>
+  <si>
+    <t>VVI_TCOND</t>
+  </si>
+  <si>
+    <t>gelse, kalsa</t>
+  </si>
+  <si>
+    <t>FIIL_GECMISZAMAN_DI</t>
+  </si>
+  <si>
+    <t>VVI_TPAST</t>
+  </si>
+  <si>
+    <t>FIIL_ZAMAN</t>
+  </si>
+  <si>
+    <t>Görülen geçmiş zaman da denir.</t>
+  </si>
+  <si>
+    <t>FIIL_GECMISZAMAN_MIS</t>
+  </si>
+  <si>
+    <t>VVI_TNARR</t>
+  </si>
+  <si>
+    <t>Öğrenilen geçmiş zaman da denir.</t>
+  </si>
+  <si>
+    <t>FIIL_GELECEKZAMAN_ECEK</t>
+  </si>
+  <si>
+    <t>VVI_TFUTR</t>
+  </si>
+  <si>
+    <t>FIIL_GENISZAMAN_IR</t>
+  </si>
+  <si>
+    <t>VVI_TAORSH</t>
+  </si>
+  <si>
+    <t>FIIL_SIMDIKIZAMAN_IYOR</t>
+  </si>
+  <si>
+    <t>VVI_TPROG</t>
+  </si>
+  <si>
+    <t>ekliyor, gözlüyor, anlıyor</t>
+  </si>
+  <si>
+    <t>Ünlü ile biten fiillerde daralmaya sebep olur.</t>
+  </si>
+  <si>
+    <t>FIIL_SURERLIK_EDUR</t>
+  </si>
+  <si>
+    <t>VVI_TDUR</t>
+  </si>
+  <si>
+    <t>FFY</t>
+  </si>
+  <si>
+    <t>YF_SUREKLILIK</t>
+  </si>
+  <si>
+    <t>(y)A zarf fiil eki+durmak yardımcı fiili. Belli bir zamandan beri yapılma veya belli bir durumda kalma gibi anlamlar katar.</t>
+  </si>
+  <si>
+    <t>FIIL_SURERLIK_EGEL</t>
+  </si>
+  <si>
+    <t>VVI_TGEL</t>
+  </si>
+  <si>
+    <t>(y)A zarf fiil eki+gelmek yardımcı fiili. Belli bir zamandan beri yapılma veya belli bir durumda kalma gibi anlamlar katar.</t>
+  </si>
+  <si>
+    <t>FIIL_SURERLIK_EGOR</t>
+  </si>
+  <si>
+    <t>VVI_TGOR</t>
+  </si>
+  <si>
+    <t>(y)A zarf fiil eki+görmek yardımcı fiili. Belli bir zamandan beri yapılma veya belli bir durumda kalma gibi anlamlar katar.</t>
+  </si>
+  <si>
+    <t>FIIL_SURERLIK_EKAL</t>
+  </si>
+  <si>
+    <t>VVI_TKAL</t>
+  </si>
+  <si>
+    <t>(y)A zarf fiil eki+kalmak yardımcı fiili. Belli bir zamandan beri yapılma veya belli bir durumda kalma gibi anlamlar katar.</t>
+  </si>
+  <si>
+    <t>FIIL_TEZLIK_IVER</t>
+  </si>
+  <si>
+    <t>YF</t>
+  </si>
+  <si>
+    <t>yapıvermek, sıkılıverdi, kayıvermiş, okuyuverdi, geliver, buluver, üzülüverdi, anlayıvermiş, bekleyiver</t>
+  </si>
+  <si>
+    <t>(y)U zarf-fiil eki ile ver- yardımcı fiilinden oluşur. Çabukluk, birdenbirelik, kendiliğinden veya rahatlıkla olma gibi anlamlar katar.</t>
+  </si>
+  <si>
+    <t>FIIL_YAKLASMA_AYAZ</t>
+  </si>
+  <si>
+    <t>VVI_TYAZ</t>
+  </si>
+  <si>
+    <t>YF_YAKLASMA</t>
+  </si>
+  <si>
+    <t>(y)A zarf fiil eki+yazmak yardımcı fiili. Bir fiilin gerçekleşmeye çok yaklaşmış olması anlamını katar.</t>
+  </si>
+  <si>
+    <t>FIIL_YETENEK_EBIL</t>
+  </si>
+  <si>
+    <t>VVI_TABIL</t>
+  </si>
+  <si>
+    <t>Bu ek aslında bir yardımcı fiildir. Fiillerle birleşerek birleşik fiil yapar. (y)A zarf fiil eki ile bil- yardımcı fiilinden oluşur. Yapabilme gücü, imkân ve ihtimal (olasılık) anlamlarını katar.</t>
+  </si>
+  <si>
+    <t>FIIL_YETERSIZLIK_E + FIIL_OLUMSUZLUK_ME</t>
+  </si>
+  <si>
+    <t>VVI_ANEG</t>
+  </si>
+  <si>
+    <t>Bu ek aslında bir yardımcı fiildir. Fiillerle birleşerek birleşik fiil yapar.</t>
+  </si>
+  <si>
+    <t>NVD_YIS</t>
+  </si>
+  <si>
+    <t>FIY</t>
+  </si>
+  <si>
+    <t>FIIL_DONUSUM_ME</t>
+  </si>
+  <si>
+    <t>JVD_MA</t>
+  </si>
+  <si>
+    <t>kaplama, dökme, yapma, serpme</t>
+  </si>
+  <si>
+    <t>FIIL_MASTAR_MEK</t>
+  </si>
+  <si>
+    <t>NVD_MAK</t>
+  </si>
+  <si>
+    <t>FIIL_DONUSUM_ECEK</t>
+  </si>
+  <si>
+    <t>JVD_ACAK</t>
+  </si>
+  <si>
+    <t>FSY</t>
+  </si>
+  <si>
+    <t>FIILIMSI_SIFAT_EN</t>
+  </si>
+  <si>
+    <t>NVD_AN</t>
+  </si>
+  <si>
+    <t>gelen, giden, bölünen, kaçan, kalan, yaratan, sevilen, gören, gelen, giden, bekleyen, susayan</t>
+  </si>
+  <si>
+    <t>FIIL_DONUSUM_ESI</t>
+  </si>
+  <si>
+    <t>çatlayası, boyu devrilesi, olası, yetişmeyesi</t>
+  </si>
+  <si>
+    <t>FIIL_DONUSUM_ESICE</t>
+  </si>
+  <si>
+    <t>kudurasıca, geberesice, çatlayasıca, gülmeyesice</t>
+  </si>
+  <si>
+    <t>FIIL_BELIRTME_DIK</t>
+  </si>
+  <si>
+    <t>FIIL_DONUSUM_MEZ</t>
+  </si>
+  <si>
+    <t>JVD_MAZ</t>
+  </si>
+  <si>
+    <t>görünmez, yanmaz, yılmaz, utanmaz</t>
+  </si>
+  <si>
+    <t>FIIL_DONUSUM_MIS</t>
+  </si>
+  <si>
+    <t>JVD_MIS</t>
+  </si>
+  <si>
+    <t>FZY</t>
+  </si>
+  <si>
+    <t>ortaklaşa, nöbetleşe, sapa, çalışa çalışa, bekleye bekleye, anlaya anlaya, diye, geçe</t>
+  </si>
+  <si>
+    <t>Aslında zarf-fiil ekidir.</t>
+  </si>
+  <si>
+    <t>yapalı, geleli, almayalı, dinlemeyeli</t>
+  </si>
+  <si>
+    <t>FIIL_SUREKLILIK_EREK</t>
+  </si>
+  <si>
+    <t>VVI_XADV2</t>
+  </si>
+  <si>
+    <t>Adverbial aux</t>
+  </si>
+  <si>
+    <t>FIIL_DONUSUM_ESIYE</t>
+  </si>
+  <si>
+    <t>anlayasıya, bekleyesiye, bakasıya, ölesiye</t>
+  </si>
+  <si>
+    <t>FIIL_IMSI_IP</t>
+  </si>
+  <si>
+    <t>Fiilden az önce veya onunla aynı zamanda yapılan işleri gösteren zarf-fiiller türetir.</t>
+  </si>
+  <si>
+    <t>FIIL_ZAMAN_INCE</t>
+  </si>
+  <si>
+    <t>gelince, yapınca, korkunca, ölünce, başlayınca, bekleyince</t>
+  </si>
+  <si>
+    <t>FIIL_GIBI_CESINE</t>
+  </si>
+  <si>
+    <t>Aslında bu ek isimlere de gelebiliyor. O yüzden ekin isimlere gelen versiyonu için ayrı bir ek tanımladık.</t>
+  </si>
+  <si>
+    <t>FIIL_DEVAMLILIK_DIKCE</t>
+  </si>
+  <si>
+    <t>AVD_DIKÇA</t>
+  </si>
+  <si>
+    <t>Bir işin art arda veya belirli aralıklarla tekrarlandığını gösterir. Oldukça, gittikçe, vardıkça kalıplaşmış zarflardır.</t>
+  </si>
+  <si>
+    <t>FIIL_OLUMSUZLUK_DEN</t>
+  </si>
+  <si>
+    <t>yapmadan, yürümeden</t>
+  </si>
+  <si>
+    <t>FIIL_OLUMSUZLUK_SIZIN</t>
+  </si>
+  <si>
+    <t>anlamaksızın, dinlemeksizin</t>
+  </si>
+  <si>
+    <t>kesmece, bulmaca</t>
+  </si>
+  <si>
+    <t>Bu eki fiilden isim yapan olarak kabul ediyoruz. Kesmece gibi sıfatları doğrudan sözlükte bulabileceğimizi varsayıyoruz</t>
+  </si>
+  <si>
+    <t>FIIL_EDILGENSESLI_N</t>
+  </si>
+  <si>
+    <t>VVI_REFX</t>
+  </si>
+  <si>
+    <t>boyan, sulan, arabalan, evlen, gözlen, kurun</t>
+  </si>
+  <si>
+    <t>Bu ek bazı fiilere gelebilirken bazılarına gelemiyor.</t>
+  </si>
+  <si>
+    <t>Örnekler düzeltildi.</t>
+  </si>
+  <si>
+    <t>FIIL_EDILGEN_IL</t>
+  </si>
+  <si>
+    <t>VVI_PASSL</t>
+  </si>
+  <si>
+    <t>Genelde ünlü ile biten fiillere gelmez. Ama ettirgen eklerinden sonra geliyor her zaman</t>
+  </si>
+  <si>
+    <t>Geçişsiz fiillere geldiğinde edilgen (öznesi belli olmayan) fiiller yapar. Geçişli fiillere geldiğinde de edilgen yapar.</t>
+  </si>
+  <si>
+    <t>FIIL_ETTIRGEN_TIR</t>
+  </si>
+  <si>
+    <t>VVI_CAUSD</t>
+  </si>
+  <si>
+    <t>Genelde ünlü ile biten fiillere gelmiyor ama istisnası var. "yedir". Ünlü biten fiillerde araya oldurgan t giriyor</t>
+  </si>
+  <si>
+    <t>Ünlü ile biten tek heceli fiillerle ünsüzle biten bütün fiillere gelir.</t>
+  </si>
+  <si>
+    <t>FIIL_ETTIRGEN_TEKRAR_T</t>
+  </si>
+  <si>
+    <t>yaptırt(mak), sadece Dır ekinden sonra geliyor kabul edebiliriz sanırım</t>
+  </si>
+  <si>
+    <t>ünlü ile biten fiillere geliyor. İstisnası "de" ve "ye" ayrıca ettirgen dur elinden sonra da geliyor bol-bol</t>
+  </si>
+  <si>
+    <t>FIIL_BERABERLIK_IS</t>
+  </si>
+  <si>
+    <t>VVI_RECP</t>
+  </si>
+  <si>
+    <t>Her fiil ile anlamlı olmuyor</t>
+  </si>
+  <si>
+    <t>Örneklerde, işin ortaklaşa (birlikte) veya karşılıklı yapılması anlamı vardır. Kalışmak, gidişmek, yürüşmek gibi kurulumlar anlamlı değil ama mümkün</t>
+  </si>
+  <si>
+    <t>FIIL_OLDURGAN_T</t>
+  </si>
+  <si>
+    <t>VVI_CAUST</t>
+  </si>
+  <si>
+    <t>FIIL_OLUMSUZLUK_MA</t>
+  </si>
+  <si>
+    <t>VVI_NEG</t>
+  </si>
+  <si>
+    <t>gelme, kalma</t>
+  </si>
+  <si>
+    <t>Fiilin anlamını değiştirerek yeni bir fiil yapar. Mesela gelmek, gelmemek gibi. Bu yüzden fiilden fiil yapan yapım eki olarak kabul edilir.</t>
+  </si>
+  <si>
+    <t>FIIL_TANIMLAMA_ICI</t>
+  </si>
+  <si>
+    <t>NVD_ICI</t>
+  </si>
+  <si>
+    <t>Daha çok meslek/uğraşı ve alet isimleri yapar.</t>
+  </si>
+  <si>
+    <t>ISIM_DONUSUM_LE</t>
+  </si>
+  <si>
+    <t>VJD_LA</t>
+  </si>
+  <si>
+    <t>IFY</t>
+  </si>
+  <si>
+    <t>ISIM_DONUSUM_LES</t>
+  </si>
+  <si>
+    <t>VJD_LAS</t>
+  </si>
+  <si>
+    <t>güzelleşmek, yoksullaşmak, başkalaşmak</t>
+  </si>
+  <si>
+    <t>ISIM_KUCULTME_CEGIZ</t>
+  </si>
+  <si>
+    <t>NND_CAGZ</t>
+  </si>
+  <si>
+    <t>IIY</t>
+  </si>
+  <si>
+    <t>adamcağız, köyceğiz, kuşcağız</t>
+  </si>
+  <si>
+    <t>ISIM_ILGI_CI</t>
+  </si>
+  <si>
+    <t>NND_CI</t>
+  </si>
+  <si>
+    <t>ISIM_KUCULTME_CIK</t>
+  </si>
+  <si>
+    <t>NND_CIK</t>
+  </si>
+  <si>
+    <t>ISIM_BULUNMA_LIK</t>
+  </si>
+  <si>
+    <t>NND_LIK</t>
+  </si>
+  <si>
+    <t>ISIM_ANDIRMA_IMSI</t>
+  </si>
+  <si>
+    <t>JJD_IMSI</t>
+  </si>
+  <si>
+    <t>ISY</t>
+  </si>
+  <si>
+    <t>ISIM_BULUNMA_LI</t>
+  </si>
+  <si>
+    <t>JND_LI</t>
+  </si>
+  <si>
+    <t>tatlı, sesli, uslu, Asyalı, Anamurlu, türlü</t>
+  </si>
+  <si>
+    <t>ISIM_ILISKILI_SEL</t>
+  </si>
+  <si>
+    <t>JND_SAL</t>
+  </si>
+  <si>
+    <t>sorunsal, biçimsel, toplumsal</t>
+  </si>
+  <si>
+    <t>ISIM_ANDIRMA_SI</t>
+  </si>
+  <si>
+    <t>JND_MSI</t>
+  </si>
+  <si>
+    <t>ISIM_YOKLUK_SIZ</t>
+  </si>
+  <si>
+    <t>JND_SIZ</t>
+  </si>
+  <si>
+    <t>ISIM_GIBI_CE</t>
+  </si>
+  <si>
+    <t>NJD_CA</t>
+  </si>
+  <si>
+    <t>IZY</t>
+  </si>
+  <si>
+    <t>delicesine, akıllıcasına, hoşçasına, mertçesine</t>
+  </si>
+  <si>
+    <t>SAYI_SIRA_INCI</t>
+  </si>
+  <si>
+    <t>JND_INCI</t>
+  </si>
+  <si>
+    <t>SSY</t>
+  </si>
+  <si>
+    <t>Sayılar dışında, yine sıra ifade eden birkaç kelimede de görülebilir: Kaçıncı, ortancı…</t>
+  </si>
+  <si>
+    <t>SAYI_ULESTIRME_ER</t>
+  </si>
+  <si>
+    <t>JND_SER</t>
+  </si>
+  <si>
+    <t>birer, ikişer, dokuzar, altışar</t>
+  </si>
+  <si>
+    <t>Ünlü ile biten sayı sıfatlarından sonra şAr, ünsüzle bitenlerden sonra Ar gelir. Üleştirme/paylaştırma anlamı katar.</t>
+  </si>
+  <si>
+    <t>VND_DA</t>
+  </si>
+  <si>
+    <t>YFY</t>
+  </si>
+  <si>
+    <t>parıldamak, höpürdemek</t>
+  </si>
+  <si>
+    <t>tU (yansıma) isimden isim yapma eki ilave edilmeli! Parıl-tı, gürül-tü… Birkaç kelime dışında yansıma kelimelere getirilir. Genellikle -l, -r, -y ünsüzleriyle biten kelimelere getirilir.</t>
+  </si>
+  <si>
+    <t>YANKI_DONUSUM_TI</t>
+  </si>
+  <si>
+    <t>YIY</t>
+  </si>
+  <si>
+    <t>parıltı, uğultu, kütürtü, fingirti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bu ek Ar, Ur ve z olmak üzere üç farklı yüzeye sahip olabilir. Şimdilik tek bir ek olarak tanımladık. Ve durumu kotarmak için çeşitli kurallar yazdık. </t>
+  </si>
+  <si>
+    <t>ZAMIR_COGUL_lAr</t>
+  </si>
+  <si>
+    <t>Zamirlerde istisna çok olduğu için ayrı bir çoğul eki yazıldı.</t>
+  </si>
+  <si>
+    <t>Aksi takdirde nomal çoğul ekine bir sürü istisna kural yazıp sistemi yavaşlatabilirdik.</t>
+  </si>
+  <si>
+    <t>TAMLAMA_COGUL_lAr</t>
+  </si>
+  <si>
+    <t>zeytinyağları, elebaşları</t>
+  </si>
+  <si>
+    <t>Bu ek tamlamaların çoğul ekinden sonra sadece sahiplik eki alabilmesinden kaynaklanan bir ek</t>
+  </si>
+  <si>
+    <t>Kesme işareti dik ve kıvrımlı olmak üzere iki şekilde kullanılabiliyor.</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>Bence bu ek olmamalı ya da bu eki alan fiiller yine de sözlükte bulunmalı</t>
+  </si>
+  <si>
+    <t>FY_EDILGEN_Ul_(U)n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ıl, il, ul, ül, n, ın, in, un, ün, </t>
+  </si>
+  <si>
+    <t>FY_ETTIRGEN_(U)t</t>
+  </si>
+  <si>
+    <t>dır, dir, dur, dür, tır, tir, tur, tür</t>
+  </si>
+  <si>
+    <t>FY_ETTIRTGEN_DUr</t>
+  </si>
+  <si>
+    <t>genis_Ar</t>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>da, de, dı, di, du, dü</t>
+  </si>
+  <si>
+    <t>YANKI_DONUSUM_DA</t>
+  </si>
+  <si>
+    <t>SORU_mU</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>SORU_KOK</t>
+  </si>
+  <si>
+    <t>mısın, miydin, müyüz, muşsunuz</t>
+  </si>
+  <si>
+    <t>Bu ekten önce boşluk eki gelir.</t>
+  </si>
+  <si>
+    <t>KARAKTER_KESME</t>
+  </si>
+  <si>
+    <t>KARAKTER_BOSLUK</t>
+  </si>
+  <si>
+    <t>gelir misin, ben de</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>BAGLAC_dA</t>
+  </si>
+  <si>
+    <t>FIIL_DONUSUM_IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dık, dik, duk, dük, dığ, diğ, duğ, düğ, tığ, tiğ, tuğ, tüğ, tık, tik, tuk, tük </t>
+  </si>
+  <si>
+    <t>ki, kü</t>
+  </si>
+  <si>
+    <t>ZAMAN_BELIRTME_KI</t>
+  </si>
+  <si>
+    <t>ZAMAN_ki</t>
+  </si>
+  <si>
+    <t>_da, _de</t>
+  </si>
+  <si>
+    <t>_dA</t>
+  </si>
+  <si>
+    <t>_mU</t>
+  </si>
+  <si>
+    <t>_mı, _mi, _mu, _mü</t>
+  </si>
+  <si>
+    <t>L_KESME_KALDIR, D_KESME_EKLE</t>
+  </si>
+  <si>
+    <t>la, le, lı, li, lu, lü</t>
+  </si>
+  <si>
+    <t>FY_ETTIRGEN_Dur</t>
+  </si>
+  <si>
+    <t>FY_ETTIRGEN_DUr_(U)t</t>
+  </si>
+  <si>
+    <t>FY_ETTIRTGEN_t_DUr</t>
+  </si>
+  <si>
+    <t>dır, dir, dur, dür, tır, tir, tur, tür, t, ıt, it, ut, üt</t>
+  </si>
+  <si>
+    <t>dır, dir, dur, dür, tır, tir, tur, tür, t</t>
+  </si>
+  <si>
+    <t>ZAMIR_ILGI_(n)Un</t>
+  </si>
+  <si>
+    <t>FY_DONUSLU_n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca, ce, ça, çe, nca, nce </t>
+  </si>
+  <si>
+    <t>yin, yun, nın, nin, nun, nün, ın, in, un, ün, im</t>
+  </si>
+  <si>
+    <t>FC_KIP_DILEK_sA</t>
+  </si>
+  <si>
+    <t>lı, li, lu, lü, nlu</t>
+  </si>
+  <si>
+    <t>sız, siz, suz, süz, nsuz</t>
+  </si>
+  <si>
+    <t>lık, lik, luk, lük, lığ, liğ, luğ, lüğ, nluk</t>
+  </si>
+  <si>
+    <t>cağız, ceğiz, ncağız</t>
+  </si>
+  <si>
+    <t>sub-type</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>emptySurface</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>bu iki ek yerine üstteki 2 eki kullanıyoruz sanırım. Emin olduktan sonra silinebilir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ım, im, um, üm, m, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ın, in, un, ün, n, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sı, si, su, sü, ı, i, u, ü, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ımız, imiz, umuz, ümüz, mız, miz, muz, müz, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ınız, iniz, unuz, ünüz, nız, niz, nuz, nüz, </t>
+  </si>
+  <si>
+    <t>den, dan, ten, tan, nden, ndan</t>
+  </si>
+  <si>
+    <t>de, da, te, ta, nde, nda</t>
+  </si>
+  <si>
+    <t>yı, yi, yu, yü, ı, i, u, ü, nı, ni, nu, nü</t>
+  </si>
+  <si>
+    <t>a, e, ya, ye, na, ne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_A, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_U, DUSME_UNLU, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSME_UNSUZ, DONUSUM_A, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSME_UNSUZ, DONUSUM_U, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_U, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_D, DONUSUM_A, </t>
+  </si>
+  <si>
+    <t>DONUSUM_A, S_TAMLAMA_COGUOZEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_D, DONUSUM_U, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSME_UNSUZ, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSME_UNSUZ, DONUSUM_U, DONUSUM_D, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_U, DONUSUM_A, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_A, DONUSUM_I, </t>
+  </si>
+  <si>
+    <t>DUSME_UNSUZ, DONUSUM_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_A, DUSME_UNSUZ, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_A, DONUSUM_I, DUSME_UNSUZ, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSME_UNSUZ, DONUSUM_A, DONUSUM_I, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSME_UNSUZ, DONUSUM_U, DONUSUM_A, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_C, DONUSUM_A, DONUSUM_I, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_D, DONUSUM_U, DONUSUM_A, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_I, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_U, DUSME_UNSUZ, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSME_UNLU, DONUSUM_U, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_U, DONUSUM_D, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_U, DONUSUM_C, </t>
+  </si>
+  <si>
+    <t>DONUSUM_U,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_C, DONUSUM_A, </t>
+  </si>
+  <si>
+    <t>DONUSUM_U</t>
+  </si>
+  <si>
+    <t>DONUSUM_U, DUSME_UNSUZ, OZEL_N</t>
+  </si>
+  <si>
+    <t>DONUSUM_A, DONUSUM_I, OZEL_N</t>
+  </si>
+  <si>
+    <t>OZEL_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZEL_BIZ_lIm, DONUSUM_I, </t>
+  </si>
+  <si>
+    <t>anlar, gelir, korur, görür, kalır, yapar, eder</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kalemim, kitabım, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t>köyüm, okulum, günlüğüm,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t>küpten</t>
-    </r>
-  </si>
-  <si>
-    <t>NNI_ABL3</t>
-  </si>
-  <si>
-    <t>kitabından, kaleminden, masasından</t>
-  </si>
-  <si>
-    <t>Bu ek de (n)U belirtme hâli gibi, zamirlerden ve iyelik eklerinden sonra gelir.</t>
-  </si>
-  <si>
-    <t>NNI_OBJ3</t>
+      <t>masam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kalemin, kitabın, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve">köyün, okulun, günlüğün, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t>masan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kalemi, kitabı, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t>nesi, köyü, okulu, günlüğü, masası, elbisesi, paltosu, pardesüsü</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kalemimiz, kitabımız,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t>okulumuz, günlüğümüz, masamız, elbisemiz, paltomuz, pardesümüz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kaleminiz, kitabınız,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve"> okulunuz, günlüğünüz, masanız, elbiseniz, paltonuz, pardesünüz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kitapları, kalemleri, masaları, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t>neleri</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kitaba, kaleme, masaya,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t xml:space="preserve"> elbiseye</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kitabı, kalemi, masayı, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t>besteyi, okulu, paltoyu, pardesüyü, küpü</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1032,1317 +2159,427 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ı, onu, bunu, şunu, günlüğünü, evlerini</t>
     </r>
   </si>
   <si>
-    <t>Soldaki misallerde görüldüğü gibi, zamirlerden ve iyelik eklerinden sonra kullanılır. IC_HAL_BELIRTME_(y)U eki 3. tekil şahıs iyelik eki ve bazı eklerden sonra y yardımcı sesi yerine n yardımcı aldığından ikinci bir ek tanımlamak durumunda kaldık.</t>
-  </si>
-  <si>
-    <t>ISIM_BELIRTME_I</t>
-  </si>
-  <si>
-    <t>NNI_OBJ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kitabı, kalemi, masayı, </t>
+    <r>
+      <t xml:space="preserve">kitapta, kalemde, masada, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>besteyi,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>okulu, paltoyu, pardesüyü, küpü</t>
-    </r>
-  </si>
-  <si>
-    <t>Bu belirtme hâli (akkuzatif) eki. 3. tekil şahıs iyelik eki ve bazı eklerden sonra ekin farklı bir versiyonu kullanılır.</t>
-  </si>
-  <si>
-    <t>ISIM_KALMA_DE</t>
-  </si>
-  <si>
-    <t>NNI_LOC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kitapta, kalemde, masada, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>küpte</t>
     </r>
   </si>
   <si>
-    <t>NNI_LOC3</t>
-  </si>
-  <si>
-    <t>kitabında, kaleminde, masasında</t>
-  </si>
-  <si>
-    <t>Aynı şekilde, iyelik eklerinden ve zamirlerden sonra gelen bulunma hâli, önüne -n yardımcı sesini alır.</t>
-  </si>
-  <si>
-    <t>ISIM_TAMLAYAN_IN</t>
-  </si>
-  <si>
-    <t>NNI_GEN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kitabın, kalemin, </t>
+    <r>
+      <t>kitaptan, kalemden, masadan,</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t>okulun, suyun,</t>
+      <t xml:space="preserve"> küpten</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kitabın, kalemin, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve">günlüğün, küpün, </t>
+      <t>okulun, suyun, günlüğün, küpün, masanın, elbisenin, paltonun, pardesünün</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kitapla, kalemle, masayla, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">masanın, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>elbisenin, paltonun, pardesünün</t>
-    </r>
-  </si>
-  <si>
-    <t>Bu eke ilgi hâli (genitif) veya "tamlayan eki" denilir.</t>
-  </si>
-  <si>
-    <t>ISIM_BIRLIKTELIK_LE</t>
-  </si>
-  <si>
-    <t>NNI_INC</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kitapla, kalemle, masayla, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>elbiseyle</t>
     </r>
   </si>
   <si>
-    <t>Bir kelimede bulunan vasıta hâli eki (y)lA anlama göre hâl eki veya "ile" bağlacı görevinde bulunabilir. İsmi "yüklem"e bağlar. İle edatının ekleşmiş hâlidir. Elle kopardı, suyla içti vs. İle bağlacı ise "ve" yerine kullanılır; iki isim yahut fiili birbirine bağlar. Suyla hava örneğinde yla (ile) bağlaçtır.</t>
-  </si>
-  <si>
-    <t>ISIM_YONELME_E</t>
-  </si>
-  <si>
-    <t>NNI_DAT</t>
-  </si>
-  <si>
-    <r>
-      <t>kitaba, kaleme, masaya,</t>
+    <r>
+      <t xml:space="preserve">gelmiştir, buradadır, odur, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t>elbiseye</t>
-    </r>
-  </si>
-  <si>
-    <t>NNI_DAT3</t>
-  </si>
-  <si>
-    <t>masasına, günlüğüne, evlerine</t>
-  </si>
-  <si>
-    <t>ISIM_SAHIPLIK_BEN_IM</t>
-  </si>
-  <si>
-    <t>NNI_POSS1s</t>
-  </si>
-  <si>
-    <t>ISIM_SAHIPLIK</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kalemim, kitabım, </t>
+      <t>güzeldir, güllüdür, ufaktır, geniştir, koruktur, büyüktür</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ağayım, paşayım, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t>köyüm, okulum, günlüğüm,</t>
+      <t>yalnızsam, dargınım, zenginim, yorgunum, üzgünüm, hastayım, evdeyim, suçluyum, süslüyüm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ağasın, paşasın, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>zenginsin, yorgunsun, süslüsün, hastaydın</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ağayız, paşayız, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>masam</t>
-    </r>
-  </si>
-  <si>
-    <t>suyum, nem, neyim</t>
-  </si>
-  <si>
-    <t>su ve ne kelimeleri, ayrıca su kelimesi ile biten bileşik kelimeler için istisnai bir durum mevcut</t>
-  </si>
-  <si>
-    <t>ISIM_SAHIPLIK_BIZ_IMIZ</t>
-  </si>
-  <si>
-    <t>NNI_POSS1p</t>
-  </si>
-  <si>
-    <r>
-      <t>kalemimiz, kitabımız,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>yalnızız, zenginiz, yorgunuz, üzgünüz, hastayız, evdeyiz, suçluyuz, süslüyüz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ağasınız, paşasınız, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve">okulumuz, günlüğümüz, </t>
+      <t>zenginsiniz, yorgunsunuz, süslüsünüz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">gelmişse, tembelse, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">masamız, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t>elbisemiz, paltomuz, pardesümüz</t>
-    </r>
-  </si>
-  <si>
-    <t>suyumuz, nemiz, neyimiz</t>
-  </si>
-  <si>
-    <t>ISIM_SAHIPLIK_O_I</t>
-  </si>
-  <si>
-    <t>NNI_POSS3s</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kalemi, kitabı, </t>
+      <t>baktıysa, bulursa, sildiyse, doğruysa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yapmışmış, gitmişmiş, tembelmiş, hastaydı, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve">nesi, köyü, okulu, günlüğü, </t>
+      <t>gelseymiş, baksaymış, okurmuş, görsünmüş, oradaymış</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yapsaydı, gelmişti, tembeldi, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">masası, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>elbisesi, paltosu, pardesüsü</t>
-    </r>
-  </si>
-  <si>
-    <t>suyu,  birisi, kimisi, çoğusu,  neyi (nesi de olur)</t>
-  </si>
-  <si>
-    <t>Bu ekin diğer adı "tamlanan eki"dir. Üçüncü tekil şahıs iyelik eki kimi zaman üst üste gelebilir (Birisi, kimisi vs).  Zemberek'te bu ek ISIM_TAMLAMA_I ve ISIM_SAHIPLIK_O_I şeklinde iki ek olarak düşünülmüş ancak Leyla Karahan'ın "Türkçenin Söz Dizimi" isimli kitabına dayanarak tek bir ek olarak kabul ettik.</t>
-  </si>
-  <si>
-    <t>ISIM_SAHIPLIK_ONLAR_LERI</t>
-  </si>
-  <si>
-    <t>NNI_POSS3p</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kitapları, kalemleri, masaları, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>neleri</t>
-    </r>
-  </si>
-  <si>
-    <t>ISIM_SAHIPLIK_SEN_IN</t>
-  </si>
-  <si>
-    <t>NNI_POSS2s</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kalemin, kitabın, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">köyün, okulun, günlüğün, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>masan</t>
-    </r>
-  </si>
-  <si>
-    <t>suyun, nen, neyin</t>
-  </si>
-  <si>
-    <t>ISIM_SAHIPLIK_SIZ_INIZ</t>
-  </si>
-  <si>
-    <t>NNI_POSS2p</t>
-  </si>
-  <si>
-    <r>
-      <t>kaleminiz, kitabınız,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve"> okulunuz, günlüğünüz, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">masanız, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>elbiseniz, paltonuz, pardesünüz</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> suyunuz, neniz, neyiniz</t>
-  </si>
-  <si>
-    <t>benim, bizim</t>
-  </si>
-  <si>
-    <t>Şahıs zamirleri bu ekten sonra vasıta eki alabildiklerinden, ayrıca 1. şahıs zamirleri ilgi ekini farklı biçimde aldığı için IC_HAL_ILGI ekinden ayrı olarak tanımlandı</t>
-  </si>
-  <si>
-    <t>senin, onun, sizin, onların</t>
-  </si>
-  <si>
-    <t>IMEK_HIKAYE_DI</t>
-  </si>
-  <si>
-    <t>VVI_XPAST</t>
-  </si>
-  <si>
-    <t>EF</t>
-  </si>
-  <si>
-    <t>EK_FIIL_ZAMAN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">yapsaydı, gelmişti, tembeldi, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t xml:space="preserve">bekleseydi, yazsındı, oradaydı, verirdi, buluyordu, görürdü, bakmıştı, sevmişti, çözmüştü, sormuştu </t>
     </r>
   </si>
   <si>
-    <t>Emir kipinin hikâyesi yoktur.</t>
-  </si>
-  <si>
-    <t>IMEK_RIVAYET_MIS</t>
-  </si>
-  <si>
-    <t>VVI_XDUBT</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">yapmışmış, gitmişmiş, tembelmiş, hastaydı, </t>
-    </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t>gelseymiş, baksaymış, okurmuş, görsünmüş, oradaymış</t>
-    </r>
-  </si>
-  <si>
-    <t>Emir kipinin rivayeti yoktur.</t>
-  </si>
-  <si>
-    <t>ISIM_KISI_BEN_IM</t>
-  </si>
-  <si>
-    <t>EK_FIIL_SAHIS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ağayım, paşayım, </t>
+      <t>sardı, geldi, sordu, gördü, gitti, kaçtı, buldu, söktü</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kalmış, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t>yalnızsam, dargınım, zenginim, yorgunum, üzgünüm, hastayım, evdeyim, suçluyum, süslüyüm</t>
-    </r>
-  </si>
-  <si>
-    <t>yalnızsam</t>
-  </si>
-  <si>
-    <t>ISIM_KISI_BIZ_IZ</t>
-  </si>
-  <si>
-    <t>ağaysak, dargınsak</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ağayız, paşayız, </t>
+      <t>gelmiş, bulmuş, ölmüş</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kalacak, gelecek, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>yalnızız, zenginiz, yorgunuz, üzgünüz, hastayız, evdeyiz, suçluyuz, süslüyüz</t>
-    </r>
-  </si>
-  <si>
-    <t>ISIM_KISI_ONLAR_LER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ağalar, paşalar, yalnızdırlar, yalnızlardır, zengindirler, zenginlerdir, yorgundurlar, yorgunlardır, çocukturlar, çocuklardır, süslüdürler, gençtirler, Türk'türler, karışıktırlar </t>
-  </si>
-  <si>
-    <t>ISIM_KISI_SEN_SIN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ağasın, paşasın, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>zenginsin, yorgunsun, süslüsün, hastaydın</t>
-    </r>
-  </si>
-  <si>
-    <t>yalnızsan</t>
-  </si>
-  <si>
-    <t>ISIM_KISI_SIZ_SINIZ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ağasınız, paşasınız, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>zenginsiniz, yorgunsunuz, süslüsünüz</t>
-    </r>
-  </si>
-  <si>
-    <t>hastaydınız, gençtiniz, çocuktunuz, üzgündünüz</t>
-  </si>
-  <si>
-    <t>IMEK_SART_SE</t>
-  </si>
-  <si>
-    <t>VVI_XCOND</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">gelmişse, tembelse, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>baktıysa, bulursa, sildiyse, doğruysa</t>
-    </r>
-  </si>
-  <si>
-    <t>Emir, şart ve istek kiplerinin "şart"ı yoktur.</t>
-  </si>
-  <si>
-    <t>EK_FIIL_O_DUR</t>
-  </si>
-  <si>
-    <t>VVI_DHR</t>
-  </si>
-  <si>
-    <t>EK_FIIL</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">gelmiştir, buradadır, odur, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>güzeldir, güllüdür, ufaktır, geniştir, koruktur, büyüktür</t>
-    </r>
-  </si>
-  <si>
-    <t>Bu ek Haftalardır, günlerdir ya da 2 saattir bekliyorum gibi zarf da yapar.</t>
-  </si>
-  <si>
-    <t>Bildirme ekidir. Bazı kelimelerde ek-fiille kalıplaşmıştır. Güzeldir, gelmiştir vs. örneklerde yükleme geliyor.  İki yıldır gibi örneklerdeki ek de bildirme ekidir.</t>
-  </si>
-  <si>
-    <t>IMEK_ZAMAN_KEN</t>
-  </si>
-  <si>
-    <t>VVI_XADV1</t>
-  </si>
-  <si>
-    <t>yürürken, evdeyken, kalırken, buradayken</t>
-  </si>
-  <si>
-    <t>Fiillere geldiğinde zarf fiil  yapar. "giderken düştüm" gibi.</t>
-  </si>
-  <si>
-    <t>FIIL_EMIR_SIZ_IN</t>
-  </si>
-  <si>
-    <t>FC</t>
-  </si>
-  <si>
-    <t>Kip</t>
-  </si>
-  <si>
-    <t>gelin, yapın, bulun, görün, anlayın, bekleyin, okuyun</t>
-  </si>
-  <si>
-    <t>FIIL_EMIR_SIZRESMI_INIZ</t>
-  </si>
-  <si>
-    <t>bakınız, geliniz, bulunuz, görünüz, anlayınız, bekleyiniz, okuyunuz</t>
-  </si>
-  <si>
-    <t>FIIL_EMIR_O_SIN</t>
-  </si>
-  <si>
-    <t>gelsin, yapsın, okusun, görsün</t>
-  </si>
-  <si>
-    <t>FIIL_EMIR_ONLAR_SINLER</t>
-  </si>
-  <si>
-    <t>gelsinler, yapsınlar, okusunlar, görsünler</t>
-  </si>
-  <si>
-    <t>FIIL_ZORUNLULUK_MELI</t>
-  </si>
-  <si>
-    <t>VVI_TNECE</t>
-  </si>
-  <si>
-    <t>gelmeli, kalmalı</t>
-  </si>
-  <si>
-    <t>FIIL_ISTEK_E</t>
-  </si>
-  <si>
-    <t>VVI_TOPTA</t>
-  </si>
-  <si>
-    <t>baka, vere, anlaya, özleye, geleydi, sataymış, gelmeyeydi, gitmeyeydi</t>
-  </si>
-  <si>
-    <t>FIIL_ISTEK_SENE</t>
-  </si>
-  <si>
-    <t>yapsana, gelsene</t>
-  </si>
-  <si>
-    <t>FIIL_ISTEK_SENIZE</t>
-  </si>
-  <si>
-    <t>yapsanıza, gelsenize</t>
-  </si>
-  <si>
-    <t>FIIL_SART_SE</t>
-  </si>
-  <si>
-    <t>VVI_TCOND</t>
-  </si>
-  <si>
-    <t>gelse, kalsa</t>
-  </si>
-  <si>
-    <t>FIIL_GECMISZAMAN_DI</t>
-  </si>
-  <si>
-    <t>VVI_TPAST</t>
-  </si>
-  <si>
-    <t>FIIL_ZAMAN</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">sardı, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">geldi, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">sordu, gördü, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">gitti, kaçtı, buldu, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>söktü</t>
-    </r>
-  </si>
-  <si>
-    <t>Görülen geçmiş zaman da denir.</t>
-  </si>
-  <si>
-    <t>FIIL_GECMISZAMAN_MIS</t>
-  </si>
-  <si>
-    <t>VVI_TNARR</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kalmış, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">gelmiş, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bulmuş, ölmüş</t>
-    </r>
-  </si>
-  <si>
-    <t>Öğrenilen geçmiş zaman da denir.</t>
-  </si>
-  <si>
-    <t>FIIL_GELECEKZAMAN_ECEK</t>
-  </si>
-  <si>
-    <t>VVI_TFUTR</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kalacak, gelecek, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>bekleyecek, saklayacak, bekleyeceğim, bakacağım, geleceğim, saklayacağım</t>
     </r>
   </si>
   <si>
-    <t>FIIL_GENISZAMAN_IR</t>
-  </si>
-  <si>
-    <t>VVI_TAORSH</t>
-  </si>
-  <si>
-    <t>FIIL_SIMDIKIZAMAN_IYOR</t>
-  </si>
-  <si>
-    <t>VVI_TPROG</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve">yiyor, bakıyor, </t>
+      <t>yiyor, bakıyor, geliyor, oluyor, görüyor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yazadur, okuyadur, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">geliyor, oluyor, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>görüyor</t>
-    </r>
-  </si>
-  <si>
-    <t>ekliyor, gözlüyor, anlıyor</t>
-  </si>
-  <si>
-    <t>Ünlü ile biten fiillerde daralmaya sebep olur.</t>
-  </si>
-  <si>
-    <t>FIIL_SURERLIK_EDUR</t>
-  </si>
-  <si>
-    <t>VVI_TDUR</t>
-  </si>
-  <si>
-    <t>FFY</t>
-  </si>
-  <si>
-    <t>YF_SUREKLILIK</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">yazadur, okuyadur, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>gidedur, bekleyedur</t>
     </r>
   </si>
   <si>
-    <t>(y)A zarf fiil eki+durmak yardımcı fiili. Belli bir zamandan beri yapılma veya belli bir durumda kalma gibi anlamlar katar.</t>
-  </si>
-  <si>
-    <t>FIIL_SURERLIK_EGEL</t>
-  </si>
-  <si>
-    <t>VVI_TGEL</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">okuyagel, düşegelir, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>alagel, bekleyegel</t>
     </r>
   </si>
   <si>
-    <t>(y)A zarf fiil eki+gelmek yardımcı fiili. Belli bir zamandan beri yapılma veya belli bir durumda kalma gibi anlamlar katar.</t>
-  </si>
-  <si>
-    <t>FIIL_SURERLIK_EGOR</t>
-  </si>
-  <si>
-    <t>VVI_TGOR</t>
-  </si>
-  <si>
     <r>
       <t>okuyagör, düşegör,</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t xml:space="preserve"> bakagör, bekleyegör</t>
     </r>
   </si>
   <si>
-    <t>(y)A zarf fiil eki+görmek yardımcı fiili. Belli bir zamandan beri yapılma veya belli bir durumda kalma gibi anlamlar katar.</t>
-  </si>
-  <si>
-    <t>FIIL_SURERLIK_EKAL</t>
-  </si>
-  <si>
-    <t>VVI_TKAL</t>
-  </si>
-  <si>
     <r>
       <t>yazakal, okuyakal, görekaldım,</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t xml:space="preserve"> bakakalmış, şaşakaldı, bekleyekaldı, kalakaldı</t>
     </r>
   </si>
   <si>
-    <t>(y)A zarf fiil eki+kalmak yardımcı fiili. Belli bir zamandan beri yapılma veya belli bir durumda kalma gibi anlamlar katar.</t>
-  </si>
-  <si>
-    <t>FIIL_TEZLIK_IVER</t>
-  </si>
-  <si>
-    <t>YF</t>
-  </si>
-  <si>
-    <t>yapıvermek, sıkılıverdi, kayıvermiş, okuyuverdi, geliver, buluver, üzülüverdi, anlayıvermiş, bekleyiver</t>
-  </si>
-  <si>
-    <t>(y)U zarf-fiil eki ile ver- yardımcı fiilinden oluşur. Çabukluk, birdenbirelik, kendiliğinden veya rahatlıkla olma gibi anlamlar katar.</t>
-  </si>
-  <si>
-    <t>FIIL_YAKLASMA_AYAZ</t>
-  </si>
-  <si>
-    <t>VVI_TYAZ</t>
-  </si>
-  <si>
-    <t>YF_YAKLASMA</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">düşeyaz, unutayaz, okuyayazdım, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>öleyazmış, titreyeyazdım</t>
     </r>
   </si>
   <si>
-    <t>(y)A zarf fiil eki+yazmak yardımcı fiili. Bir fiilin gerçekleşmeye çok yaklaşmış olması anlamını katar.</t>
-  </si>
-  <si>
-    <t>FIIL_YETENEK_EBIL</t>
-  </si>
-  <si>
-    <t>VVI_TABIL</t>
-  </si>
-  <si>
     <r>
       <t>gelebilir,</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve"> bakabilmiş, </t>
+      <t xml:space="preserve"> bakabilmiş, yürüyebildim, okuyabildi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yazamaz, okuyamaz, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yürüyebildim, okuyabildi</t>
-    </r>
-  </si>
-  <si>
-    <t>Bu ek aslında bir yardımcı fiildir. Fiillerle birleşerek birleşik fiil yapar. (y)A zarf fiil eki ile bil- yardımcı fiilinden oluşur. Yapabilme gücü, imkân ve ihtimal (olasılık) anlamlarını katar.</t>
-  </si>
-  <si>
-    <t>FIIL_YETERSIZLIK_E + FIIL_OLUMSUZLUK_ME</t>
-  </si>
-  <si>
-    <t>VVI_ANEG</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">yazamaz, okuyamaz, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>gelemedi, yürüyememiş</t>
     </r>
   </si>
   <si>
-    <t>Bu ek aslında bir yardımcı fiildir. Fiillerle birleşerek birleşik fiil yapar.</t>
-  </si>
-  <si>
-    <t>NVD_YIS</t>
-  </si>
-  <si>
-    <t>FIY</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">dalış, geçiş, gidiş, vuruş, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>görüş, saklayış, bekleyiş, koruyuş, yürüyüş</t>
     </r>
   </si>
   <si>
-    <t>FIIL_DONUSUM_ME</t>
-  </si>
-  <si>
-    <t>JVD_MA</t>
-  </si>
-  <si>
-    <t>kaplama, dökme, yapma, serpme</t>
-  </si>
-  <si>
-    <t>FIIL_MASTAR_MEK</t>
-  </si>
-  <si>
-    <t>NVD_MAK</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">yapmak, yemek, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>çakmak</t>
     </r>
   </si>
   <si>
-    <t>FIIL_DONUSUM_ECEK</t>
-  </si>
-  <si>
-    <t>JVD_ACAK</t>
-  </si>
-  <si>
-    <t>FSY</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">oturacak, içecek, söylenecek, olmayacak, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>bekleyecek, oturacağı, bekleyeceği, geleceği, saklayacağın</t>
     </r>
   </si>
   <si>
-    <t>FIILIMSI_SIFAT_EN</t>
-  </si>
-  <si>
-    <t>NVD_AN</t>
-  </si>
-  <si>
-    <t>gelen, giden, bölünen, kaçan, kalan, yaratan, sevilen, gören, gelen, giden, bekleyen, susayan</t>
-  </si>
-  <si>
-    <t>FIIL_DONUSUM_ESI</t>
-  </si>
-  <si>
-    <t>çatlayası, boyu devrilesi, olası, yetişmeyesi</t>
-  </si>
-  <si>
-    <t>FIIL_DONUSUM_ESICE</t>
-  </si>
-  <si>
-    <t>kudurasıca, geberesice, çatlayasıca, gülmeyesice</t>
-  </si>
-  <si>
-    <t>FIIL_BELIRTME_DIK</t>
-  </si>
-  <si>
-    <t>FIIL_DONUSUM_MEZ</t>
-  </si>
-  <si>
-    <t>JVD_MAZ</t>
-  </si>
-  <si>
-    <t>görünmez, yanmaz, yılmaz, utanmaz</t>
-  </si>
-  <si>
-    <t>FIIL_DONUSUM_MIS</t>
-  </si>
-  <si>
-    <t>JVD_MIS</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">geçmiş, okumuş, pişmiş, yanmış, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>ölmüş</t>
     </r>
   </si>
   <si>
-    <t>FZY</t>
-  </si>
-  <si>
-    <t>ortaklaşa, nöbetleşe, sapa, çalışa çalışa, bekleye bekleye, anlaya anlaya, diye, geçe</t>
-  </si>
-  <si>
-    <t>Aslında zarf-fiil ekidir.</t>
-  </si>
-  <si>
-    <t>yapalı, geleli, almayalı, dinlemeyeli</t>
-  </si>
-  <si>
-    <t>FIIL_SUREKLILIK_EREK</t>
-  </si>
-  <si>
-    <t>VVI_XADV2</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">yürüyerek, giderek, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>bakarak, okuyarak</t>
     </r>
   </si>
   <si>
-    <t>Adverbial aux</t>
-  </si>
-  <si>
-    <t>FIIL_DONUSUM_ESIYE</t>
-  </si>
-  <si>
-    <t>anlayasıya, bekleyesiye, bakasıya, ölesiye</t>
-  </si>
-  <si>
-    <t>FIIL_IMSI_IP</t>
-  </si>
-  <si>
     <r>
       <t>yapıp, edip,</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t xml:space="preserve"> sorup, gülüp, anlayıp, bekleyip, okuyup, büyüyüp</t>
     </r>
   </si>
   <si>
-    <t>Fiilden az önce veya onunla aynı zamanda yapılan işleri gösteren zarf-fiiller türetir.</t>
-  </si>
-  <si>
-    <t>FIIL_ZAMAN_INCE</t>
-  </si>
-  <si>
-    <t>gelince, yapınca, korkunca, ölünce, başlayınca, bekleyince</t>
-  </si>
-  <si>
-    <t>FIIL_GIBI_CESINE</t>
-  </si>
-  <si>
     <r>
       <t>yürürcesine, yaparcasına,</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t>anlamışçasına, dinlemişçesine</t>
-    </r>
-  </si>
-  <si>
-    <t>Aslında bu ek isimlere de gelebiliyor. O yüzden ekin isimlere gelen versiyonu için ayrı bir ek tanımladık.</t>
-  </si>
-  <si>
-    <t>FIIL_DEVAMLILIK_DIKCE</t>
-  </si>
-  <si>
-    <t>AVD_DIKÇA</t>
+      <t xml:space="preserve"> anlamışçasına, dinlemişçesine</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2350,91 +2587,41 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>vardıkça, geldikçe, sordukça, güldükçe, baktıkça, seçtikçe, korktukça, öptükçe</t>
     </r>
   </si>
   <si>
-    <t>Bir işin art arda veya belirli aralıklarla tekrarlandığını gösterir. Oldukça, gittikçe, vardıkça kalıplaşmış zarflardır.</t>
-  </si>
-  <si>
-    <t>FIIL_OLUMSUZLUK_DEN</t>
-  </si>
-  <si>
-    <t>yapmadan, yürümeden</t>
-  </si>
-  <si>
-    <t>FIIL_OLUMSUZLUK_SIZIN</t>
-  </si>
-  <si>
-    <t>anlamaksızın, dinlemeksizin</t>
-  </si>
-  <si>
-    <t>kesmece, bulmaca</t>
-  </si>
-  <si>
-    <t>Bu eki fiilden isim yapan olarak kabul ediyoruz. Kesmece gibi sıfatları doğrudan sözlükte bulabileceğimizi varsayıyoruz</t>
-  </si>
-  <si>
-    <t>FIIL_EDILGENSESLI_N</t>
-  </si>
-  <si>
-    <t>VVI_REFX</t>
-  </si>
-  <si>
-    <t>boyan, sulan, arabalan, evlen, gözlen, kurun</t>
-  </si>
-  <si>
-    <t>Bu ek bazı fiilere gelebilirken bazılarına gelemiyor.</t>
-  </si>
-  <si>
-    <t>Örnekler düzeltildi.</t>
-  </si>
-  <si>
-    <t>FIIL_EDILGEN_IL</t>
-  </si>
-  <si>
-    <t>VVI_PASSL</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">yapılmış, </t>
+    <r>
+      <t xml:space="preserve">okuyucu, yazıcı, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t xml:space="preserve">veril(iyor), bozul(du), </t>
+      <t>verici, kurucu, yüzücü, ağlayıcı, patlayıcı, dinleyici</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">yapılmış, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>küçüldü</t>
-    </r>
-  </si>
-  <si>
-    <t>Genelde ünlü ile biten fiillere gelmez. Ama ettirgen eklerinden sonra geliyor her zaman</t>
-  </si>
-  <si>
-    <t>Geçişsiz fiillere geldiğinde edilgen (öznesi belli olmayan) fiiller yapar. Geçişli fiillere geldiğinde de edilgen yapar.</t>
-  </si>
-  <si>
-    <t>FIIL_ETTIRGEN_TIR</t>
-  </si>
-  <si>
-    <t>VVI_CAUSD</t>
+      <t>veril(iyor), bozul(du), küçüldü</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2442,34 +2629,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t xml:space="preserve"> sevdir(mek), yazdır(mak), sordur(mak), seçtir(mek), koştur(mak), sürçtür(mek)</t>
     </r>
   </si>
   <si>
-    <t>Genelde ünlü ile biten fiillere gelmiyor ama istisnası var. "yedir". Ünlü biten fiillerde araya oldurgan t giriyor</t>
-  </si>
-  <si>
-    <t>Ünlü ile biten tek heceli fiillerle ünsüzle biten bütün fiillere gelir.</t>
-  </si>
-  <si>
-    <t>FIIL_ETTIRGEN_TEKRAR_T</t>
-  </si>
-  <si>
-    <t>yaptırt(mak), sadece Dır ekinden sonra geliyor kabul edebiliriz sanırım</t>
-  </si>
-  <si>
-    <t>ünlü ile biten fiillere geliyor. İstisnası "de" ve "ye" ayrıca ettirgen dur elinden sonra da geliyor bol-bol</t>
-  </si>
-  <si>
-    <t>FIIL_BERABERLIK_IS</t>
-  </si>
-  <si>
-    <t>VVI_RECP</t>
+    <r>
+      <t xml:space="preserve">çıkart, küçült, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="162"/>
+      </rPr>
+      <t>akıt(mak), ürküt(mek), korkut(mak), eğit(mek)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2477,641 +2657,184 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>bekleş(mek), itiş(mek)</t>
     </r>
   </si>
   <si>
-    <t>Her fiil ile anlamlı olmuyor</t>
-  </si>
-  <si>
-    <t>Örneklerde, işin ortaklaşa (birlikte) veya karşılıklı yapılması anlamı vardır. Kalışmak, gidişmek, yürüşmek gibi kurulumlar anlamlı değil ama mümkün</t>
-  </si>
-  <si>
-    <t>FIIL_OLDURGAN_T</t>
-  </si>
-  <si>
-    <t>VVI_CAUST</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">çıkart, küçült, </t>
+    <r>
+      <t xml:space="preserve">sollamak, genişlemek, serinlemek, ucuzlamak, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
-      <t>akıt(mak), ürküt(mek), korkut(mak), eğit(mek)</t>
-    </r>
-  </si>
-  <si>
-    <t>FIIL_OLUMSUZLUK_MA</t>
-  </si>
-  <si>
-    <t>VVI_NEG</t>
-  </si>
-  <si>
-    <t>gelme, kalma</t>
-  </si>
-  <si>
-    <t>Fiilin anlamını değiştirerek yeni bir fiil yapar. Mesela gelmek, gelmemek gibi. Bu yüzden fiilden fiil yapan yapım eki olarak kabul edilir.</t>
-  </si>
-  <si>
-    <t>FIIL_TANIMLAMA_ICI</t>
-  </si>
-  <si>
-    <t>NVD_ICI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">okuyucu, yazıcı, </t>
+      <t xml:space="preserve">ucuzluyor (daralma), serinliyor, kolaylıyor, düzlüyor, sepetlemek, çuvallamak, kalaylamak, kazıklamak, başlıyor (daralma), izliyor, özlüyor, buzluyor </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">oyuncu, ekmekçi, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t>verici, kurucu, yüzücü, ağlayıcı, patlayıcı, dinleyici</t>
-    </r>
-  </si>
-  <si>
-    <t>Daha çok meslek/uğraşı ve alet isimleri yapar.</t>
-  </si>
-  <si>
-    <t>ISIM_DONUSUM_LE</t>
-  </si>
-  <si>
-    <t>VJD_LA</t>
-  </si>
-  <si>
-    <t>IFY</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">sollamak, genişlemek, serinlemek, ucuzlamak, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ucuzluyor (daralma), serinliyor, kolaylıyor, düzlüyor, sepetlemek, çuvallamak, kalaylamak, kazıklamak, başlıyor (daralma), izliyor, özlüyor, buzluyor </t>
-    </r>
-  </si>
-  <si>
-    <t>ISIM_DONUSUM_LES</t>
-  </si>
-  <si>
-    <t>VJD_LAS</t>
-  </si>
-  <si>
-    <t>güzelleşmek, yoksullaşmak, başkalaşmak</t>
-  </si>
-  <si>
-    <t>ISIM_KUCULTME_CEGIZ</t>
-  </si>
-  <si>
-    <t>NND_CAGZ</t>
-  </si>
-  <si>
-    <t>IIY</t>
-  </si>
-  <si>
-    <t>adamcağız, köyceğiz, kuşcağız</t>
-  </si>
-  <si>
-    <t>ISIM_ILGI_CI</t>
-  </si>
-  <si>
-    <t>NND_CI</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">oyuncu, ekmekçi, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>bilgisayarcı, muhallebici, büyücü, sanatçı, tavukçu, gözlükçü</t>
     </r>
   </si>
   <si>
-    <t>ISIM_KUCULTME_CIK</t>
-  </si>
-  <si>
-    <t>NND_CIK</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">adamcık, yavrucuk, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t xml:space="preserve">kimsecik, gölcük, kulakçık, Mehmetçik, Umutçuk, öğütçük, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>adamcığa, kimseciği, yavrucuğu, gölcüğe, kulakçığı, Mehmetçiğin, Umutçuğa, öğütçüğün</t>
     </r>
   </si>
   <si>
-    <t>ISIM_BULUNMA_LIK</t>
-  </si>
-  <si>
-    <t>NND_LIK</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">gözlük, gecelik, uykuluk, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>parmaklık, yemekliği, parmaklığa, uykuluğun, gözlüğüm</t>
     </r>
   </si>
   <si>
-    <t>ISIM_ANDIRMA_IMSI</t>
-  </si>
-  <si>
-    <t>JJD_IMSI</t>
-  </si>
-  <si>
-    <t>ISY</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">tatlımsı, mavimsi, hamurumsu, sertimsi, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>ağacımsı, bordomsu, kükürdümsü, göğümsü</t>
     </r>
   </si>
   <si>
-    <t>ISIM_BULUNMA_LI</t>
-  </si>
-  <si>
-    <t>JND_LI</t>
-  </si>
-  <si>
-    <t>tatlı, sesli, uslu, Asyalı, Anamurlu, türlü</t>
-  </si>
-  <si>
-    <t>ISIM_ILISKILI_SEL</t>
-  </si>
-  <si>
-    <t>JND_SAL</t>
-  </si>
-  <si>
-    <t>sorunsal, biçimsel, toplumsal</t>
-  </si>
-  <si>
-    <t>ISIM_ANDIRMA_SI</t>
-  </si>
-  <si>
-    <t>JND_MSI</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">erkeksi, yılansı, çocuksu, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>köksü, büyüksü, sütsü</t>
     </r>
   </si>
   <si>
-    <t>ISIM_YOKLUK_SIZ</t>
-  </si>
-  <si>
-    <t>JND_SIZ</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">tatsız, evsiz, sonsuz, köksüz, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t xml:space="preserve">annemsiz, acımasız, bakımsız </t>
     </r>
   </si>
   <si>
-    <t>ISIM_GIBI_CE</t>
-  </si>
-  <si>
-    <t>NJD_CA</t>
-  </si>
-  <si>
-    <t>IZY</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">güzelce, akıllıca, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>ufakça, büyükçe, dostça, sınıfça, ailece, akrabaca, milletçe, bence, kanaatimce</t>
     </r>
   </si>
   <si>
-    <t>delicesine, akıllıcasına, hoşçasına, mertçesine</t>
-  </si>
-  <si>
-    <t>SAYI_SIRA_INCI</t>
-  </si>
-  <si>
-    <t>JND_INCI</t>
-  </si>
-  <si>
-    <t>SSY</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">birinci, ikinci, üçüncü, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
         <charset val="162"/>
       </rPr>
       <t>altıncı, bir milyarıncı, sekizinci, dokuzuncu</t>
     </r>
   </si>
   <si>
-    <t>Sayılar dışında, yine sıra ifade eden birkaç kelimede de görülebilir: Kaçıncı, ortancı…</t>
-  </si>
-  <si>
-    <t>SAYI_ULESTIRME_ER</t>
-  </si>
-  <si>
-    <t>JND_SER</t>
-  </si>
-  <si>
-    <t>birer, ikişer, dokuzar, altışar</t>
-  </si>
-  <si>
-    <t>Ünlü ile biten sayı sıfatlarından sonra şAr, ünsüzle bitenlerden sonra Ar gelir. Üleştirme/paylaştırma anlamı katar.</t>
-  </si>
-  <si>
-    <t>VND_DA</t>
-  </si>
-  <si>
-    <t>YFY</t>
-  </si>
-  <si>
-    <t>parıldamak, höpürdemek</t>
-  </si>
-  <si>
-    <t>tU (yansıma) isimden isim yapma eki ilave edilmeli! Parıl-tı, gürül-tü… Birkaç kelime dışında yansıma kelimelere getirilir. Genellikle -l, -r, -y ünsüzleriyle biten kelimelere getirilir.</t>
-  </si>
-  <si>
-    <t>YANKI_DONUSUM_TI</t>
-  </si>
-  <si>
-    <t>YIY</t>
-  </si>
-  <si>
-    <t>parıltı, uğultu, kütürtü, fingirti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bu ek Ar, Ur ve z olmak üzere üç farklı yüzeye sahip olabilir. Şimdilik tek bir ek olarak tanımladık. Ve durumu kotarmak için çeşitli kurallar yazdık. </t>
-  </si>
-  <si>
-    <t>ZAMIR_COGUL_lAr</t>
-  </si>
-  <si>
-    <t>Zamirlerde istisna çok olduğu için ayrı bir çoğul eki yazıldı.</t>
-  </si>
-  <si>
-    <t>Aksi takdirde nomal çoğul ekine bir sürü istisna kural yazıp sistemi yavaşlatabilirdik.</t>
-  </si>
-  <si>
-    <t>TAMLAMA_COGUL_lAr</t>
-  </si>
-  <si>
-    <t>zeytinyağları, elebaşları</t>
-  </si>
-  <si>
-    <t>Bu ek tamlamaların çoğul ekinden sonra sadece sahiplik eki alabilmesinden kaynaklanan bir ek</t>
-  </si>
-  <si>
-    <t>L_DONUSUM_A, S_TAMLAMA_COGUL_OZEL</t>
-  </si>
-  <si>
-    <t>Kesme işareti dik ve kıvrımlı olmak üzere iki şekilde kullanılabiliyor.</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>Bence bu ek olmamalı ya da bu eki alan fiiller yine de sözlükte bulunmalı</t>
-  </si>
-  <si>
-    <t>FY_EDILGEN_Ul_(U)n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ıl, il, ul, ül, n, ın, in, un, ün, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_OZEL_EDILGEN, L_DUSME_UNLU, L_DONUSUM_U, </t>
-  </si>
-  <si>
-    <t>FY_ETTIRGEN_(U)t</t>
-  </si>
-  <si>
-    <t>dır, dir, dur, dür, tır, tir, tur, tür</t>
-  </si>
-  <si>
-    <t>FY_ETTIRTGEN_DUr</t>
-  </si>
-  <si>
-    <t>genis_Ar</t>
-  </si>
-  <si>
-    <t>flags</t>
-  </si>
-  <si>
-    <t>L_DUSME_UNSUZ, L_DONUSUM_A</t>
-  </si>
-  <si>
-    <t>da, de, dı, di, du, dü</t>
-  </si>
-  <si>
-    <t>YANKI_DONUSUM_DA</t>
-  </si>
-  <si>
-    <t>L_DONUSUM_U,</t>
-  </si>
-  <si>
-    <t>SORU_mU</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>SORU_KOK</t>
-  </si>
-  <si>
-    <t>mısın, miydin, müyüz, muşsunuz</t>
-  </si>
-  <si>
-    <t>Bu ekten önce boşluk eki gelir.</t>
-  </si>
-  <si>
-    <t>KARAKTER_KESME</t>
-  </si>
-  <si>
-    <t>KARAKTER_BOSLUK</t>
-  </si>
-  <si>
-    <t>gelir misin, ben de</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>BAGLAC_dA</t>
-  </si>
-  <si>
-    <t>FIIL_DONUSUM_IS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dık, dik, duk, dük, dığ, diğ, duğ, düğ, tığ, tiğ, tuğ, tüğ, tık, tik, tuk, tük </t>
-  </si>
-  <si>
-    <t>ki, kü</t>
-  </si>
-  <si>
-    <t>ZAMAN_BELIRTME_KI</t>
-  </si>
-  <si>
-    <t>ZAMAN_ki</t>
-  </si>
-  <si>
-    <t>_da, _de</t>
-  </si>
-  <si>
-    <t>_dA</t>
-  </si>
-  <si>
-    <t>_mU</t>
-  </si>
-  <si>
-    <t>_mı, _mi, _mu, _mü</t>
-  </si>
-  <si>
-    <t>L_DONUSUM_U</t>
-  </si>
-  <si>
-    <t>L_KESME_KALDIR, D_KESME_EKLE</t>
-  </si>
-  <si>
-    <t>la, le, lı, li, lu, lü</t>
-  </si>
-  <si>
-    <t>FY_ETTIRGEN_Dur</t>
-  </si>
-  <si>
-    <t>FY_ETTIRGEN_DUr_(U)t</t>
-  </si>
-  <si>
-    <t>FY_ETTIRTGEN_t_DUr</t>
-  </si>
-  <si>
-    <t>dır, dir, dur, dür, tır, tir, tur, tür, t, ıt, it, ut, üt</t>
-  </si>
-  <si>
-    <t>dır, dir, dur, dür, tır, tir, tur, tür, t</t>
-  </si>
-  <si>
-    <t>L_OZEL_ETTIRTGEN, L_DONUSUM_U, L_DONUSUM_D,</t>
-  </si>
-  <si>
-    <t>L_OZEL_ETTIRGEN,  L_DONUSUM_D, L_DONUSUM_U</t>
-  </si>
-  <si>
-    <t>ZAMIR_ILGI_(n)Un</t>
-  </si>
-  <si>
-    <t>FY_DONUSLU_n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca, ce, ça, çe, nca, nce </t>
-  </si>
-  <si>
-    <t>L_DONUSUM_U, L_DUSME_UNSUZ, F_OZEL_N</t>
-  </si>
-  <si>
-    <t>L_DONUSUM_A, L_DONUSUM_I, F_OZEL_N</t>
-  </si>
-  <si>
-    <t>F_OZEL_N</t>
-  </si>
-  <si>
-    <t>yin, yun, nın, nin, nun, nün, ın, in, un, ün, im</t>
-  </si>
-  <si>
-    <t>FC_KIP_DILEK_sA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">anlar, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">gelir, korur, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve">görür, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kalır, yapar, eder</t>
-    </r>
-  </si>
-  <si>
-    <t>lı, li, lu, lü, nlu</t>
-  </si>
-  <si>
-    <t>sız, siz, suz, süz, nsuz</t>
-  </si>
-  <si>
-    <t>lık, lik, luk, lük, lığ, liğ, luğ, lüğ, nluk</t>
-  </si>
-  <si>
-    <t>cağız, ceğiz, ncağız</t>
-  </si>
-  <si>
-    <t>sub-type</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>emptySurface</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>bu iki ek yerine üstteki 2 eki kullanıyoruz sanırım. Emin olduktan sonra silinebilir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ım, im, um, üm, m, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ın, in, un, ün, n, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sı, si, su, sü, ı, i, u, ü, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ımız, imiz, umuz, ümüz, mız, miz, muz, müz, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ınız, iniz, unuz, ünüz, nız, niz, nuz, nüz, </t>
-  </si>
-  <si>
-    <t>den, dan, ten, tan, nden, ndan</t>
-  </si>
-  <si>
-    <t>de, da, te, ta, nde, nda</t>
-  </si>
-  <si>
-    <t>yı, yi, yu, yü, ı, i, u, ü, nı, ni, nu, nü</t>
-  </si>
-  <si>
-    <t>a, e, ya, ye, na, ne</t>
+    <t xml:space="preserve">OZEL_UYOR, DONUSUM_U, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZEL_GZ, DUSME_UNLU_GZ, DONUSUM_U, DONUSUM_A, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZEL_EDILGEN, DUSME_UNLU, DONUSUM_U, </t>
+  </si>
+  <si>
+    <t>OZEL_ETTIRGEN,  DONUSUM_D, DONUSUM_U</t>
+  </si>
+  <si>
+    <t>OZEL_ETTIRTGEN, DONUSUM_U, DONUSUM_D,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_A, DUSME_UNSUZ, YUMUSAMA_kğ, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_D, DONUSUM_U, YUMUSAMA_kğ, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_U, DONUSUM_C, YUMUSAMA_kğ, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONUSUM_U, YUMUSAMA_kğ, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3121,45 +2844,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <charset val="162"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <charset val="162"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <charset val="162"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
       <charset val="162"/>
     </font>
   </fonts>
@@ -3197,15 +2905,220 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3222,33 +3135,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O115" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O115" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:O115"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="lexicalForm"/>
-    <tableColumn id="3" name="sub-type"/>
-    <tableColumn id="4" name="type"/>
-    <tableColumn id="5" name="Alt tür"/>
-    <tableColumn id="6" name="Grup"/>
-    <tableColumn id="7" name="flags"/>
-    <tableColumn id="8" name="rules"/>
-    <tableColumn id="9" name="surfaces"/>
-    <tableColumn id="15" name="emptySurface"/>
-    <tableColumn id="10" name="Zemberek Karşılığı"/>
-    <tableColumn id="11" name="Oflazer Karşılığı"/>
-    <tableColumn id="12" name="Örnekler"/>
-    <tableColumn id="13" name="İstisnalar"/>
-    <tableColumn id="14" name="Açıklama"/>
+    <tableColumn id="1" name="id" dataDxfId="14"/>
+    <tableColumn id="2" name="lexicalForm" dataDxfId="13"/>
+    <tableColumn id="3" name="sub-type" dataDxfId="12"/>
+    <tableColumn id="4" name="type" dataDxfId="11"/>
+    <tableColumn id="5" name="Alt tür" dataDxfId="10"/>
+    <tableColumn id="6" name="Grup" dataDxfId="9"/>
+    <tableColumn id="7" name="flags" dataDxfId="8"/>
+    <tableColumn id="8" name="rules" dataDxfId="7"/>
+    <tableColumn id="9" name="surfaces" dataDxfId="6"/>
+    <tableColumn id="15" name="emptySurface" dataDxfId="5"/>
+    <tableColumn id="10" name="Zemberek Karşılığı" dataDxfId="4"/>
+    <tableColumn id="11" name="Oflazer Karşılığı" dataDxfId="3"/>
+    <tableColumn id="12" name="Örnekler" dataDxfId="2"/>
+    <tableColumn id="13" name="İstisnalar" dataDxfId="1"/>
+    <tableColumn id="14" name="Açıklama" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3286,7 +3199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3358,7 +3271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3535,13 +3448,13 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -3561,54 +3474,54 @@
     <col min="16" max="16384" width="13" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>710</v>
+        <v>615</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>663</v>
+        <v>577</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>712</v>
+        <v>617</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3619,34 +3532,34 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3657,37 +3570,37 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>197</v>
+        <v>630</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>715</v>
+        <v>620</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>357</v>
+        <v>661</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3698,37 +3611,37 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>197</v>
+        <v>630</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>716</v>
+        <v>621</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>374</v>
+        <v>662</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3739,37 +3652,37 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>700</v>
+        <v>656</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>717</v>
+        <v>622</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>366</v>
+        <v>663</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -3780,34 +3693,34 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>197</v>
+        <v>630</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>718</v>
+        <v>623</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>362</v>
+        <v>664</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3818,34 +3731,34 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>197</v>
+        <v>630</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>719</v>
+        <v>624</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>378</v>
+        <v>665</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3856,31 +3769,31 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>701</v>
+        <v>657</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3891,32 +3804,32 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>723</v>
+        <v>628</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3926,31 +3839,31 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3961,35 +3874,35 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>722</v>
+        <v>627</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>333</v>
+        <v>668</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3999,31 +3912,31 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -4034,32 +3947,32 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>206</v>
+        <v>634</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>721</v>
+        <v>626</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4069,31 +3982,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -4104,32 +4017,32 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>206</v>
+        <v>634</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>720</v>
+        <v>625</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4139,31 +4052,31 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4174,34 +4087,34 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>703</v>
+        <v>609</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>343</v>
+        <v>672</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -4212,34 +4125,34 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>347</v>
+        <v>673</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -4250,33 +4163,33 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>680</v>
+        <v>592</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>682</v>
+        <v>594</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
@@ -4285,21 +4198,21 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>680</v>
+        <v>592</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
@@ -4308,75 +4221,75 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>650</v>
+        <v>566</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>651</v>
+        <v>567</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>654</v>
+        <v>585</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>569</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>711</v>
+        <v>616</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="J22" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="J22" s="3"/>
       <c r="N22" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>676</v>
+        <v>586</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="J23" s="3"/>
       <c r="M23" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>697</v>
+        <v>606</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>33</v>
@@ -4385,27 +4298,27 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>2</v>
@@ -4414,24 +4327,24 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>646</v>
+        <v>562</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
@@ -4440,25 +4353,25 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>647</v>
+        <v>563</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -4469,37 +4382,37 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>210</v>
+        <v>636</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>415</v>
+        <v>674</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>416</v>
+        <v>365</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -4510,28 +4423,28 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -4542,28 +4455,28 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -4574,28 +4487,28 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="K30" s="1" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -4606,28 +4519,28 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -4638,28 +4551,28 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -4670,25 +4583,25 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>393</v>
+        <v>348</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -4699,25 +4612,25 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
@@ -4728,28 +4641,28 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>218</v>
+        <v>659</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
@@ -4760,28 +4673,28 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>394</v>
+        <v>349</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -4792,34 +4705,34 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>221</v>
+        <v>637</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -4830,34 +4743,34 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>410</v>
+        <v>679</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -4868,34 +4781,34 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>391</v>
+        <v>680</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -4906,34 +4819,34 @@
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>224</v>
+        <v>638</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>387</v>
+        <v>681</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -4944,28 +4857,28 @@
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -4976,28 +4889,28 @@
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
@@ -5008,28 +4921,28 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>70</v>
       </c>
@@ -5040,28 +4953,28 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>227</v>
+        <v>639</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>72</v>
       </c>
@@ -5072,31 +4985,31 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
@@ -5107,28 +5020,28 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>75</v>
       </c>
@@ -5139,28 +5052,28 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>199</v>
+        <v>640</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
@@ -5171,33 +5084,33 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>199</v>
+        <v>640</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>704</v>
+        <v>610</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>79</v>
@@ -5206,31 +5119,31 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
@@ -5241,34 +5154,34 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>210</v>
+        <v>636</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>448</v>
+        <v>682</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
@@ -5279,34 +5192,34 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>452</v>
+        <v>683</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,31 +5230,31 @@
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>236</v>
+        <v>720</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
@@ -5352,37 +5265,37 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>238</v>
+        <v>715</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>461</v>
+        <v>685</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>88</v>
       </c>
@@ -5393,38 +5306,38 @@
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>240</v>
+        <v>716</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>713</v>
+        <v>618</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>457</v>
+        <v>403</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>458</v>
+        <v>404</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>705</v>
+        <v>660</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5437,32 +5350,32 @@
         <v>108</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>464</v>
+        <v>409</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>465</v>
+        <v>410</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>468</v>
+        <v>686</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -5475,32 +5388,32 @@
         <v>108</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>471</v>
+        <v>415</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>472</v>
+        <v>687</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5513,32 +5426,32 @@
         <v>108</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>475</v>
+        <v>418</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>476</v>
+        <v>688</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -5551,32 +5464,32 @@
         <v>108</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>480</v>
+        <v>689</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -5589,29 +5502,29 @@
         <v>108</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>482</v>
+        <v>423</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -5624,35 +5537,35 @@
         <v>108</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>488</v>
+        <v>429</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>662</v>
+        <v>576</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>486</v>
+        <v>427</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>487</v>
+        <v>428</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>489</v>
+        <v>690</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -5665,32 +5578,32 @@
         <v>108</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>491</v>
+        <v>431</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>492</v>
+        <v>432</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>493</v>
+        <v>691</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -5703,31 +5616,31 @@
         <v>108</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>483</v>
+        <v>424</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>495</v>
+        <v>434</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>496</v>
+        <v>435</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>497</v>
+        <v>692</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>106</v>
       </c>
@@ -5741,25 +5654,25 @@
         <v>108</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>678</v>
+        <v>590</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>109</v>
       </c>
@@ -5773,25 +5686,25 @@
         <v>108</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>502</v>
+        <v>439</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>111</v>
       </c>
@@ -5805,25 +5718,25 @@
         <v>108</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>113</v>
       </c>
@@ -5837,25 +5750,25 @@
         <v>108</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>236</v>
+        <v>720</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>114</v>
       </c>
@@ -5869,25 +5782,25 @@
         <v>108</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>253</v>
+        <v>642</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>513</v>
+        <v>448</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>116</v>
       </c>
@@ -5901,22 +5814,22 @@
         <v>108</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>255</v>
+        <v>643</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
@@ -5930,22 +5843,22 @@
         <v>108</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>255</v>
+        <v>643</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
@@ -5959,19 +5872,19 @@
         <v>108</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>258</v>
+        <v>721</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>679</v>
+        <v>591</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>122</v>
       </c>
@@ -5985,25 +5898,25 @@
         <v>108</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>124</v>
       </c>
@@ -6017,25 +5930,25 @@
         <v>108</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>510</v>
+        <v>446</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>125</v>
       </c>
@@ -6049,22 +5962,22 @@
         <v>108</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>253</v>
+        <v>642</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>527</v>
+        <v>461</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>126</v>
       </c>
@@ -6078,19 +5991,19 @@
         <v>108</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>255</v>
+        <v>643</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
@@ -6104,28 +6017,28 @@
         <v>108</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>530</v>
+        <v>464</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>532</v>
+        <v>697</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>130</v>
       </c>
@@ -6139,22 +6052,22 @@
         <v>108</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>262</v>
+        <v>644</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>534</v>
+        <v>467</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>132</v>
       </c>
@@ -6168,25 +6081,25 @@
         <v>108</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>204</v>
+        <v>632</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>536</v>
+        <v>469</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>537</v>
+        <v>698</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>134</v>
       </c>
@@ -6200,22 +6113,22 @@
         <v>108</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>265</v>
+        <v>645</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>539</v>
+        <v>471</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>136</v>
       </c>
@@ -6229,25 +6142,25 @@
         <v>108</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>267</v>
+        <v>646</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>542</v>
+        <v>699</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>138</v>
       </c>
@@ -6261,28 +6174,28 @@
         <v>108</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>269</v>
+        <v>647</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>544</v>
+        <v>475</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>546</v>
+        <v>700</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>140</v>
       </c>
@@ -6296,22 +6209,22 @@
         <v>108</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>548</v>
+        <v>478</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>142</v>
       </c>
@@ -6325,22 +6238,22 @@
         <v>108</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>526</v>
+        <v>460</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>193</v>
+        <v>648</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>144</v>
       </c>
@@ -6354,28 +6267,28 @@
         <v>108</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>580</v>
+        <v>506</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>582</v>
+        <v>508</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>146</v>
       </c>
@@ -6389,22 +6302,22 @@
         <v>108</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>148</v>
       </c>
@@ -6418,28 +6331,28 @@
         <v>108</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>198</v>
+        <v>649</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>584</v>
+        <v>510</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>585</v>
+        <v>511</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>586</v>
+        <v>701</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>150</v>
       </c>
@@ -6453,33 +6366,33 @@
         <v>108</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>276</v>
+        <v>650</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>554</v>
+        <v>484</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>555</v>
+        <v>485</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>556</v>
+        <v>486</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>557</v>
+        <v>487</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>698</v>
+        <v>607</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>52</v>
@@ -6491,9 +6404,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>656</v>
+        <v>571</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>151</v>
@@ -6505,33 +6418,33 @@
         <v>108</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>658</v>
+        <v>717</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>657</v>
+        <v>572</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>559</v>
+        <v>489</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>560</v>
+        <v>490</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>561</v>
+        <v>702</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>562</v>
+        <v>491</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>691</v>
+        <v>602</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>39</v>
@@ -6540,18 +6453,18 @@
         <v>108</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>693</v>
+        <v>604</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>692</v>
+        <v>603</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>153</v>
@@ -6560,15 +6473,15 @@
         <v>108</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>690</v>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>39</v>
@@ -6580,33 +6493,33 @@
         <v>108</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>278</v>
+        <v>651</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>565</v>
+        <v>494</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>566</v>
+        <v>703</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>567</v>
+        <v>495</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>659</v>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>156</v>
@@ -6618,28 +6531,28 @@
         <v>108</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>276</v>
+        <v>650</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>577</v>
+        <v>504</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>578</v>
+        <v>505</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>579</v>
+        <v>704</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>152</v>
       </c>
@@ -6653,24 +6566,24 @@
         <v>108</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>569</v>
+        <v>497</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>570</v>
+        <v>498</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>661</v>
+        <v>575</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>39</v>
@@ -6682,28 +6595,28 @@
         <v>108</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>278</v>
+        <v>651</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>660</v>
+        <v>574</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>564</v>
+        <v>493</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>565</v>
+        <v>494</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>567</v>
+        <v>495</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>154</v>
       </c>
@@ -6717,31 +6630,31 @@
         <v>108</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>466</v>
+        <v>411</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>276</v>
+        <v>650</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>572</v>
+        <v>500</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>573</v>
+        <v>501</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>574</v>
+        <v>705</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>575</v>
+        <v>502</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>157</v>
       </c>
@@ -6755,28 +6668,28 @@
         <v>108</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>689</v>
+        <v>600</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>588</v>
+        <v>513</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>589</v>
+        <v>514</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>591</v>
+        <v>706</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>159</v>
       </c>
@@ -6790,25 +6703,25 @@
         <v>108</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>590</v>
+        <v>515</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>592</v>
+        <v>516</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>593</v>
+        <v>517</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -6822,25 +6735,25 @@
         <v>108</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>199</v>
+        <v>640</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>709</v>
+        <v>614</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>595</v>
+        <v>519</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>596</v>
+        <v>520</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>163</v>
       </c>
@@ -6854,25 +6767,25 @@
         <v>108</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>283</v>
+        <v>652</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>599</v>
+        <v>523</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>600</v>
+        <v>524</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>165</v>
       </c>
@@ -6886,25 +6799,25 @@
         <v>108</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>285</v>
+        <v>722</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>602</v>
+        <v>525</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>603</v>
+        <v>526</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -6918,25 +6831,25 @@
         <v>108</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>597</v>
+        <v>521</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>287</v>
+        <v>723</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>708</v>
+        <v>613</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>605</v>
+        <v>527</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>606</v>
+        <v>528</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>169</v>
       </c>
@@ -6950,25 +6863,25 @@
         <v>108</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>610</v>
+        <v>531</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>276</v>
+        <v>650</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>608</v>
+        <v>529</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>609</v>
+        <v>530</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>171</v>
       </c>
@@ -6982,25 +6895,25 @@
         <v>108</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>610</v>
+        <v>531</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>706</v>
+        <v>611</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>612</v>
+        <v>532</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>613</v>
+        <v>533</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>173</v>
       </c>
@@ -7014,25 +6927,25 @@
         <v>108</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>610</v>
+        <v>531</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>615</v>
+        <v>535</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>616</v>
+        <v>536</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>175</v>
       </c>
@@ -7046,25 +6959,25 @@
         <v>108</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>610</v>
+        <v>531</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>618</v>
+        <v>538</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>619</v>
+        <v>539</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>176</v>
       </c>
@@ -7078,25 +6991,25 @@
         <v>108</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>610</v>
+        <v>531</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>707</v>
+        <v>612</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>621</v>
+        <v>540</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>622</v>
+        <v>541</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>178</v>
       </c>
@@ -7110,13 +7023,13 @@
         <v>108</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>180</v>
       </c>
@@ -7130,25 +7043,25 @@
         <v>108</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>292</v>
+        <v>654</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>699</v>
+        <v>608</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>624</v>
+        <v>542</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>625</v>
+        <v>543</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>182</v>
       </c>
@@ -7162,22 +7075,22 @@
         <v>108</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>267</v>
+        <v>646</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>541</v>
+        <v>473</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>183</v>
       </c>
@@ -7191,28 +7104,28 @@
         <v>108</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>639</v>
+        <v>555</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>665</v>
+        <v>578</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>666</v>
+        <v>579</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>638</v>
+        <v>554</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>640</v>
+        <v>556</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>185</v>
       </c>
@@ -7226,22 +7139,22 @@
         <v>108</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>643</v>
+        <v>559</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>642</v>
+        <v>558</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>187</v>
       </c>
@@ -7255,28 +7168,28 @@
         <v>108</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>631</v>
+        <v>548</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>276</v>
+        <v>650</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>629</v>
+        <v>546</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>630</v>
+        <v>547</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>632</v>
+        <v>714</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>189</v>
       </c>
@@ -7290,74 +7203,74 @@
         <v>108</v>
       </c>
       <c r="E113" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="I113" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>634</v>
+        <v>550</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>635</v>
+        <v>551</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>668</v>
+        <v>580</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>685</v>
+        <v>597</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>686</v>
+        <v>598</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>670</v>
+        <v>582</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>671</v>
+        <v>583</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>677</v>
+        <v>589</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>684</v>
+        <v>596</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>195</v>
+        <v>629</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>683</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/Nuve/Resources/Tr/suffixes.xlsx
+++ b/Nuve/Resources/Tr/suffixes.xlsx
@@ -1816,9 +1816,6 @@
     <t>_mı, _mi, _mu, _mü</t>
   </si>
   <si>
-    <t>L_KESME_KALDIR, D_KESME_EKLE</t>
-  </si>
-  <si>
     <t>la, le, lı, li, lu, lü</t>
   </si>
   <si>
@@ -2828,6 +2825,9 @@
   </si>
   <si>
     <t xml:space="preserve">DONUSUM_U, YUMUSAMA_kğ, </t>
+  </si>
+  <si>
+    <t>KESME_KALDIR, KESME_EKLE</t>
   </si>
 </sst>
 </file>
@@ -3159,9 +3159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3199,7 +3199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3271,7 +3271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3448,10 +3448,10 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3482,7 +3482,7 @@
         <v>267</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>268</v>
@@ -3503,7 +3503,7 @@
         <v>270</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>274</v>
@@ -3538,7 +3538,7 @@
         <v>281</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>193</v>
@@ -3579,10 +3579,10 @@
         <v>319</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>317</v>
@@ -3591,7 +3591,7 @@
         <v>318</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>320</v>
@@ -3620,10 +3620,10 @@
         <v>319</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>331</v>
@@ -3632,7 +3632,7 @@
         <v>332</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>333</v>
@@ -3661,10 +3661,10 @@
         <v>319</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>325</v>
@@ -3673,7 +3673,7 @@
         <v>326</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>327</v>
@@ -3702,10 +3702,10 @@
         <v>319</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>322</v>
@@ -3714,7 +3714,7 @@
         <v>323</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>324</v>
@@ -3740,10 +3740,10 @@
         <v>319</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>334</v>
@@ -3752,7 +3752,7 @@
         <v>335</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>336</v>
@@ -3778,7 +3778,7 @@
         <v>319</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>194</v>
@@ -3790,7 +3790,7 @@
         <v>330</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3813,10 +3813,10 @@
         <v>293</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>313</v>
@@ -3825,7 +3825,7 @@
         <v>314</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3848,7 +3848,7 @@
         <v>293</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>196</v>
@@ -3883,10 +3883,10 @@
         <v>293</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>299</v>
@@ -3895,7 +3895,7 @@
         <v>300</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>301</v>
@@ -3921,7 +3921,7 @@
         <v>293</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>197</v>
@@ -3930,7 +3930,7 @@
         <v>297</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>298</v>
@@ -3956,10 +3956,10 @@
         <v>293</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>302</v>
@@ -3968,7 +3968,7 @@
         <v>303</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -3991,7 +3991,7 @@
         <v>293</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>198</v>
@@ -4026,10 +4026,10 @@
         <v>293</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>291</v>
@@ -4038,7 +4038,7 @@
         <v>292</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -4061,7 +4061,7 @@
         <v>293</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>199</v>
@@ -4096,10 +4096,10 @@
         <v>293</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>307</v>
@@ -4108,7 +4108,7 @@
         <v>308</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>309</v>
@@ -4134,7 +4134,7 @@
         <v>293</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>200</v>
@@ -4146,7 +4146,7 @@
         <v>311</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>312</v>
@@ -4169,7 +4169,7 @@
         <v>281</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>592</v>
@@ -4227,7 +4227,7 @@
         <v>281</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>193</v>
@@ -4256,10 +4256,10 @@
         <v>569</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>599</v>
+        <v>723</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>569</v>
@@ -4277,7 +4277,7 @@
         <v>588</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>588</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>33</v>
@@ -4304,7 +4304,7 @@
         <v>281</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>191</v>
@@ -4359,7 +4359,7 @@
         <v>281</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>193</v>
@@ -4391,7 +4391,7 @@
         <v>364</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>201</v>
@@ -4403,7 +4403,7 @@
         <v>363</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>365</v>
@@ -4432,7 +4432,7 @@
         <v>349</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>202</v>
@@ -4441,7 +4441,7 @@
         <v>348</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -4464,7 +4464,7 @@
         <v>349</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>203</v>
@@ -4473,7 +4473,7 @@
         <v>355</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -4496,7 +4496,7 @@
         <v>349</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>204</v>
@@ -4505,7 +4505,7 @@
         <v>351</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -4528,7 +4528,7 @@
         <v>349</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>205</v>
@@ -4537,7 +4537,7 @@
         <v>357</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -4560,7 +4560,7 @@
         <v>349</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>193</v>
@@ -4650,7 +4650,7 @@
         <v>349</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>208</v>
@@ -4682,7 +4682,7 @@
         <v>349</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>209</v>
@@ -4714,7 +4714,7 @@
         <v>343</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>210</v>
@@ -4752,7 +4752,7 @@
         <v>343</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>211</v>
@@ -4764,7 +4764,7 @@
         <v>360</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>361</v>
@@ -4790,7 +4790,7 @@
         <v>343</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>273</v>
@@ -4802,7 +4802,7 @@
         <v>346</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>347</v>
@@ -4828,7 +4828,7 @@
         <v>343</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>272</v>
@@ -4840,7 +4840,7 @@
         <v>341</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>344</v>
@@ -4866,7 +4866,7 @@
         <v>373</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>212</v>
@@ -4898,7 +4898,7 @@
         <v>373</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>213</v>
@@ -4930,7 +4930,7 @@
         <v>373</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>203</v>
@@ -4962,7 +4962,7 @@
         <v>373</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>214</v>
@@ -4994,7 +4994,7 @@
         <v>373</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>215</v>
@@ -5029,7 +5029,7 @@
         <v>373</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>216</v>
@@ -5061,7 +5061,7 @@
         <v>373</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>217</v>
@@ -5093,7 +5093,7 @@
         <v>373</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>218</v>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>79</v>
@@ -5128,7 +5128,7 @@
         <v>373</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>219</v>
@@ -5163,7 +5163,7 @@
         <v>396</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>220</v>
@@ -5175,7 +5175,7 @@
         <v>395</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>397</v>
@@ -5201,7 +5201,7 @@
         <v>396</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>221</v>
@@ -5213,7 +5213,7 @@
         <v>399</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>400</v>
@@ -5239,7 +5239,7 @@
         <v>396</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>222</v>
@@ -5251,7 +5251,7 @@
         <v>402</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -5274,7 +5274,7 @@
         <v>396</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>223</v>
@@ -5286,7 +5286,7 @@
         <v>406</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>407</v>
@@ -5315,13 +5315,13 @@
         <v>396</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>224</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>403</v>
@@ -5330,7 +5330,7 @@
         <v>404</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>561</v>
@@ -5356,7 +5356,7 @@
         <v>412</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>225</v>
@@ -5368,7 +5368,7 @@
         <v>410</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>413</v>
@@ -5394,7 +5394,7 @@
         <v>412</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>226</v>
@@ -5406,7 +5406,7 @@
         <v>415</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>416</v>
@@ -5432,7 +5432,7 @@
         <v>412</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>227</v>
@@ -5444,7 +5444,7 @@
         <v>418</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>419</v>
@@ -5470,7 +5470,7 @@
         <v>412</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>228</v>
@@ -5482,7 +5482,7 @@
         <v>421</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>422</v>
@@ -5508,7 +5508,7 @@
         <v>424</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>229</v>
@@ -5546,7 +5546,7 @@
         <v>576</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>230</v>
@@ -5558,7 +5558,7 @@
         <v>428</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>430</v>
@@ -5584,7 +5584,7 @@
         <v>424</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>231</v>
@@ -5596,7 +5596,7 @@
         <v>432</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="O61" s="1" t="s">
         <v>433</v>
@@ -5622,7 +5622,7 @@
         <v>424</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>232</v>
@@ -5634,7 +5634,7 @@
         <v>435</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>436</v>
@@ -5657,7 +5657,7 @@
         <v>438</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>233</v>
@@ -5669,7 +5669,7 @@
         <v>437</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5689,7 +5689,7 @@
         <v>438</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>234</v>
@@ -5721,7 +5721,7 @@
         <v>438</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>235</v>
@@ -5733,7 +5733,7 @@
         <v>443</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -5753,7 +5753,7 @@
         <v>446</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>222</v>
@@ -5765,7 +5765,7 @@
         <v>445</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -5785,7 +5785,7 @@
         <v>446</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>236</v>
@@ -5817,7 +5817,7 @@
         <v>446</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>237</v>
@@ -5846,7 +5846,7 @@
         <v>446</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>238</v>
@@ -5875,7 +5875,7 @@
         <v>446</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>591</v>
@@ -5901,7 +5901,7 @@
         <v>446</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>239</v>
@@ -5933,7 +5933,7 @@
         <v>446</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>221</v>
@@ -5945,7 +5945,7 @@
         <v>459</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -5965,7 +5965,7 @@
         <v>460</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>195</v>
@@ -5994,7 +5994,7 @@
         <v>460</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>240</v>
@@ -6020,7 +6020,7 @@
         <v>460</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>241</v>
@@ -6032,7 +6032,7 @@
         <v>465</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>466</v>
@@ -6055,7 +6055,7 @@
         <v>460</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>242</v>
@@ -6084,7 +6084,7 @@
         <v>460</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>243</v>
@@ -6093,7 +6093,7 @@
         <v>469</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>470</v>
@@ -6116,7 +6116,7 @@
         <v>460</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>244</v>
@@ -6145,7 +6145,7 @@
         <v>460</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>245</v>
@@ -6154,7 +6154,7 @@
         <v>473</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>474</v>
@@ -6177,7 +6177,7 @@
         <v>460</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>246</v>
@@ -6189,7 +6189,7 @@
         <v>476</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O80" s="1" t="s">
         <v>477</v>
@@ -6212,7 +6212,7 @@
         <v>460</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>247</v>
@@ -6241,7 +6241,7 @@
         <v>460</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>248</v>
@@ -6270,7 +6270,7 @@
         <v>411</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>249</v>
@@ -6305,7 +6305,7 @@
         <v>438</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>250</v>
@@ -6334,7 +6334,7 @@
         <v>438</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>251</v>
@@ -6346,7 +6346,7 @@
         <v>511</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>512</v>
@@ -6369,7 +6369,7 @@
         <v>411</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>252</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>52</v>
@@ -6421,7 +6421,7 @@
         <v>411</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>572</v>
@@ -6433,7 +6433,7 @@
         <v>490</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>491</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>39</v>
@@ -6453,10 +6453,10 @@
         <v>108</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O89" s="1" t="s">
         <v>496</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>153</v>
@@ -6473,15 +6473,15 @@
         <v>108</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>39</v>
@@ -6496,7 +6496,7 @@
         <v>411</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>574</v>
@@ -6508,13 +6508,13 @@
         <v>494</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>495</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -6534,7 +6534,7 @@
         <v>411</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>255</v>
@@ -6546,7 +6546,7 @@
         <v>505</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>487</v>
@@ -6598,7 +6598,7 @@
         <v>411</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>574</v>
@@ -6633,7 +6633,7 @@
         <v>411</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>254</v>
@@ -6645,7 +6645,7 @@
         <v>501</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>502</v>
@@ -6671,10 +6671,10 @@
         <v>515</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>513</v>
@@ -6683,7 +6683,7 @@
         <v>514</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>570</v>
@@ -6706,7 +6706,7 @@
         <v>515</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>256</v>
@@ -6738,10 +6738,10 @@
         <v>521</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>519</v>
@@ -6770,7 +6770,7 @@
         <v>521</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>257</v>
@@ -6782,7 +6782,7 @@
         <v>524</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
@@ -6802,7 +6802,7 @@
         <v>521</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>258</v>
@@ -6814,7 +6814,7 @@
         <v>526</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -6834,10 +6834,10 @@
         <v>521</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>527</v>
@@ -6846,7 +6846,7 @@
         <v>528</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -6866,7 +6866,7 @@
         <v>531</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>259</v>
@@ -6878,7 +6878,7 @@
         <v>530</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -6898,10 +6898,10 @@
         <v>531</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>532</v>
@@ -6930,7 +6930,7 @@
         <v>531</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>260</v>
@@ -6962,7 +6962,7 @@
         <v>531</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>261</v>
@@ -6974,7 +6974,7 @@
         <v>539</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -6994,10 +6994,10 @@
         <v>531</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>540</v>
@@ -7006,7 +7006,7 @@
         <v>541</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
@@ -7023,7 +7023,7 @@
         <v>108</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>262</v>
@@ -7046,10 +7046,10 @@
         <v>544</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>542</v>
@@ -7058,7 +7058,7 @@
         <v>543</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
@@ -7078,7 +7078,7 @@
         <v>544</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>245</v>
@@ -7107,7 +7107,7 @@
         <v>555</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>578</v>
@@ -7142,7 +7142,7 @@
         <v>559</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>263</v>
@@ -7171,7 +7171,7 @@
         <v>548</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>264</v>
@@ -7183,7 +7183,7 @@
         <v>547</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>549</v>
@@ -7206,7 +7206,7 @@
         <v>548</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>265</v>
@@ -7238,7 +7238,7 @@
         <v>581</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>598</v>
@@ -7267,7 +7267,7 @@
         <v>581</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>595</v>

--- a/Nuve/Resources/Tr/suffixes.xlsx
+++ b/Nuve/Resources/Tr/suffixes.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="930" windowWidth="15240" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="930" windowWidth="15240" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="suffix" sheetId="1" r:id="rId1"/>
+    <sheet name="desc" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">suffix!$A$1:$O$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">suffix!$A$1:$O$108</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="730">
   <si>
     <t>Un</t>
   </si>
@@ -25,9 +26,6 @@
     <t>NI</t>
   </si>
   <si>
-    <t>im</t>
-  </si>
-  <si>
     <t>IC_COGUL_lAr</t>
   </si>
   <si>
@@ -592,12 +590,6 @@
     <t>şAr</t>
   </si>
   <si>
-    <t xml:space="preserve">un, ın, in, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">im, </t>
-  </si>
-  <si>
     <t xml:space="preserve">lar, ler, </t>
   </si>
   <si>
@@ -832,9 +824,6 @@
     <t>surfaces</t>
   </si>
   <si>
-    <t>ZAMIR_ILGI_im</t>
-  </si>
-  <si>
     <t xml:space="preserve">ydu, ydü, ydı, ydi, dı, di, du, dü, tı, ti, tu, tü, </t>
   </si>
   <si>
@@ -1030,15 +1019,6 @@
     <t xml:space="preserve"> suyunuz, neniz, neyiniz</t>
   </si>
   <si>
-    <t>benim, bizim</t>
-  </si>
-  <si>
-    <t>Şahıs zamirleri bu ekten sonra vasıta eki alabildiklerinden, ayrıca 1. şahıs zamirleri ilgi ekini farklı biçimde aldığı için IC_HAL_ILGI ekinden ayrı olarak tanımlandı</t>
-  </si>
-  <si>
-    <t>senin, onun, sizin, onların</t>
-  </si>
-  <si>
     <t>IMEK_HIKAYE_DI</t>
   </si>
   <si>
@@ -1714,15 +1694,6 @@
     <t>Aksi takdirde nomal çoğul ekine bir sürü istisna kural yazıp sistemi yavaşlatabilirdik.</t>
   </si>
   <si>
-    <t>TAMLAMA_COGUL_lAr</t>
-  </si>
-  <si>
-    <t>zeytinyağları, elebaşları</t>
-  </si>
-  <si>
-    <t>Bu ek tamlamaların çoğul ekinden sonra sadece sahiplik eki alabilmesinden kaynaklanan bir ek</t>
-  </si>
-  <si>
     <t>Kesme işareti dik ve kıvrımlı olmak üzere iki şekilde kullanılabiliyor.</t>
   </si>
   <si>
@@ -1777,15 +1748,6 @@
     <t>KARAKTER_KESME</t>
   </si>
   <si>
-    <t>KARAKTER_BOSLUK</t>
-  </si>
-  <si>
-    <t>gelir misin, ben de</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
     <t>BAGLAC_dA</t>
   </si>
   <si>
@@ -1798,12 +1760,6 @@
     <t>ki, kü</t>
   </si>
   <si>
-    <t>ZAMAN_BELIRTME_KI</t>
-  </si>
-  <si>
-    <t>ZAMAN_ki</t>
-  </si>
-  <si>
     <t>_da, _de</t>
   </si>
   <si>
@@ -1834,9 +1790,6 @@
     <t>dır, dir, dur, dür, tır, tir, tur, tür, t</t>
   </si>
   <si>
-    <t>ZAMIR_ILGI_(n)Un</t>
-  </si>
-  <si>
     <t>FY_DONUSLU_n</t>
   </si>
   <si>
@@ -1919,9 +1872,6 @@
   </si>
   <si>
     <t xml:space="preserve">DONUSUM_D, DONUSUM_A, </t>
-  </si>
-  <si>
-    <t>DONUSUM_A, S_TAMLAMA_COGUOZEL</t>
   </si>
   <si>
     <t xml:space="preserve">DONUSUM_D, DONUSUM_U, </t>
@@ -2829,12 +2779,81 @@
   <si>
     <t>KESME_KALDIR, KESME_EKLE</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Plural</t>
+  </si>
+  <si>
+    <t>1st person singular possessive</t>
+  </si>
+  <si>
+    <t>1st person plural possessive</t>
+  </si>
+  <si>
+    <t>2nd person singular possessive</t>
+  </si>
+  <si>
+    <t>2nd person plural possessive</t>
+  </si>
+  <si>
+    <t>3rd person singular possessive</t>
+  </si>
+  <si>
+    <t>3rd person plural possessive</t>
+  </si>
+  <si>
+    <t>Genitive case</t>
+  </si>
+  <si>
+    <t>Dative case</t>
+  </si>
+  <si>
+    <t>Accusative (objective) case</t>
+  </si>
+  <si>
+    <t>Locative case</t>
+  </si>
+  <si>
+    <t>Ablative case</t>
+  </si>
+  <si>
+    <t>Comitative (Instrumental) case</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Aphostrope</t>
+  </si>
+  <si>
+    <t>Plural for compound nouns</t>
+  </si>
+  <si>
+    <t>Copula</t>
+  </si>
+  <si>
+    <t>1st person singular</t>
+  </si>
+  <si>
+    <t>2nd person singular</t>
+  </si>
+  <si>
+    <t>1st person plural</t>
+  </si>
+  <si>
+    <t>3rd person plural</t>
+  </si>
+  <si>
+    <t>2nd person plural</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2870,6 +2889,11 @@
       <family val="3"/>
       <charset val="162"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2903,17 +2927,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3135,24 +3256,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O115" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:O115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O110" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:O110"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="id" dataDxfId="14"/>
-    <tableColumn id="2" name="lexicalForm" dataDxfId="13"/>
-    <tableColumn id="3" name="sub-type" dataDxfId="12"/>
-    <tableColumn id="4" name="type" dataDxfId="11"/>
-    <tableColumn id="5" name="Alt tür" dataDxfId="10"/>
-    <tableColumn id="6" name="Grup" dataDxfId="9"/>
-    <tableColumn id="7" name="flags" dataDxfId="8"/>
-    <tableColumn id="8" name="rules" dataDxfId="7"/>
-    <tableColumn id="9" name="surfaces" dataDxfId="6"/>
-    <tableColumn id="15" name="emptySurface" dataDxfId="5"/>
-    <tableColumn id="10" name="Zemberek Karşılığı" dataDxfId="4"/>
-    <tableColumn id="11" name="Oflazer Karşılığı" dataDxfId="3"/>
-    <tableColumn id="12" name="Örnekler" dataDxfId="2"/>
-    <tableColumn id="13" name="İstisnalar" dataDxfId="1"/>
-    <tableColumn id="14" name="Açıklama" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="22"/>
+    <tableColumn id="2" name="lexicalForm" dataDxfId="21"/>
+    <tableColumn id="3" name="sub-type" dataDxfId="20"/>
+    <tableColumn id="4" name="type" dataDxfId="19"/>
+    <tableColumn id="5" name="Alt tür" dataDxfId="18"/>
+    <tableColumn id="6" name="Grup" dataDxfId="17"/>
+    <tableColumn id="7" name="flags" dataDxfId="16"/>
+    <tableColumn id="8" name="rules" dataDxfId="15"/>
+    <tableColumn id="9" name="surfaces" dataDxfId="14"/>
+    <tableColumn id="15" name="emptySurface" dataDxfId="13"/>
+    <tableColumn id="10" name="Zemberek Karşılığı" dataDxfId="12"/>
+    <tableColumn id="11" name="Oflazer Karşılığı" dataDxfId="11"/>
+    <tableColumn id="12" name="Örnekler" dataDxfId="10"/>
+    <tableColumn id="13" name="İstisnalar" dataDxfId="9"/>
+    <tableColumn id="14" name="Açıklama" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:F106" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F106"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="id" dataDxfId="5"/>
+    <tableColumn id="11" name="Oflazer Karşılığı" dataDxfId="0"/>
+    <tableColumn id="2" name="lexicalForm" dataDxfId="4"/>
+    <tableColumn id="9" name="surfaces" dataDxfId="3"/>
+    <tableColumn id="10" name="Zemberek Karşılığı" dataDxfId="2"/>
+    <tableColumn id="12" name="Örnekler" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3445,13 +3581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A1:O110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3476,133 +3612,133 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -3611,3666 +3747,3532 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>707</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="M12" s="1" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O19" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>575</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="N20" s="1" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>566</v>
+        <v>190</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>290</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>569</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>615</v>
+        <v>571</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="J22" s="3"/>
+        <v>618</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="N22" s="1" t="s">
-        <v>568</v>
+        <v>358</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>588</v>
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="J23" s="3"/>
+      <c r="I23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="M23" s="1" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>605</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>281</v>
+        <v>335</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>338</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>281</v>
+        <v>335</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>338</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>562</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>281</v>
+        <v>335</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>564</v>
+        <v>202</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>674</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="I29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>676</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>677</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>354</v>
+        <v>362</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>350</v>
+        <v>661</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>356</v>
+        <v>662</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>658</v>
+        <v>620</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>351</v>
+        <v>333</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>352</v>
+        <v>663</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>209</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>636</v>
+        <v>615</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>210</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="L37" s="1" t="s">
         <v>368</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="O37" s="1" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>593</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>386</v>
+        <v>664</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>388</v>
+        <v>665</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>639</v>
+        <v>702</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>390</v>
+        <v>666</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>639</v>
+        <v>697</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>383</v>
+        <v>667</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>609</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>393</v>
+        <v>642</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>80</v>
+      <c r="A50" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>581</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>635</v>
+        <v>614</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>82</v>
+      <c r="A51" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>581</v>
+        <v>107</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>84</v>
+      <c r="A52" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>581</v>
+        <v>107</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>719</v>
+        <v>614</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>683</v>
+        <v>670</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>86</v>
+      <c r="A53" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>581</v>
+        <v>107</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>714</v>
+        <v>614</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>407</v>
+        <v>671</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>88</v>
+      <c r="A54" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>581</v>
+        <v>107</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>715</v>
+        <v>615</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>617</v>
+        <v>226</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>659</v>
+        <v>418</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>561</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>566</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>423</v>
+        <v>432</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>100</v>
+      <c r="A60" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>576</v>
+        <v>431</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>430</v>
+        <v>676</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>102</v>
+      <c r="A61" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>433</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>104</v>
+      <c r="A62" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>692</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>235</v>
+        <v>578</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>693</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>719</v>
+        <v>612</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>694</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>449</v>
+        <v>678</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>450</v>
+        <v>192</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>452</v>
+        <v>237</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>720</v>
+        <v>614</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>591</v>
+        <v>238</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>239</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>695</v>
+        <v>680</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>195</v>
+        <v>241</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>463</v>
+        <v>681</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>466</v>
+        <v>682</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>471</v>
+        <v>499</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>472</v>
+        <v>501</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>473</v>
+        <v>247</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>698</v>
+        <v>475</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K81" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>478</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>479</v>
       </c>
+      <c r="N81" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>142</v>
+        <v>590</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>647</v>
+        <v>107</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>481</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>144</v>
+        <v>561</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>249</v>
+        <v>562</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>508</v>
+        <v>684</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>146</v>
+        <v>586</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>438</v>
+        <v>107</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>628</v>
+        <v>700</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>483</v>
+        <v>588</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>148</v>
+        <v>587</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>438</v>
+        <v>107</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>648</v>
+        <v>701</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>512</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>150</v>
+      <c r="A86" s="4" t="s">
+        <v>585</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="I86" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>52</v>
+      <c r="K87" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>571</v>
+        <v>151</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>716</v>
+        <v>404</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>572</v>
+        <v>250</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="L88" s="1" t="s">
         <v>490</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>701</v>
+        <v>491</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="O88" s="1" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>717</v>
+        <v>633</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>603</v>
+        <v>564</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>602</v>
+        <v>153</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>718</v>
+        <v>632</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>604</v>
+        <v>251</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
-        <v>600</v>
+      <c r="A91" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>650</v>
+        <v>612</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>618</v>
+        <v>560</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
-        <v>573</v>
+      <c r="A92" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>411</v>
+        <v>508</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>649</v>
+        <v>612</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>411</v>
+        <v>514</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>622</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>253</v>
+        <v>597</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>497</v>
+        <v>512</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>513</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>575</v>
+        <v>162</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>411</v>
+        <v>514</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>574</v>
+        <v>254</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>496</v>
+        <v>517</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>411</v>
+        <v>514</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>649</v>
+        <v>704</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>503</v>
+        <v>690</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>570</v>
+        <v>691</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>256</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>518</v>
+        <v>692</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>651</v>
+        <v>612</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>257</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>706</v>
+        <v>530</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>166</v>
+        <v>8</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>721</v>
+        <v>635</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>258</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>722</v>
+        <v>616</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>531</v>
+        <v>107</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>649</v>
+        <v>612</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>534</v>
+        <v>695</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>628</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>536</v>
+        <v>466</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>531</v>
+        <v>548</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>261</v>
+        <v>568</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>710</v>
+        <v>549</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>611</v>
+        <v>260</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>711</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="L108" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="M108" s="1" t="s">
-        <v>712</v>
+        <v>545</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>182</v>
+        <v>570</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>137</v>
+        <v>582</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>108</v>
+        <v>571</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>245</v>
+        <v>583</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>473</v>
+        <v>572</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>545</v>
+        <v>573</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>183</v>
+        <v>576</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>184</v>
+        <v>581</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>108</v>
+        <v>571</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -7280,4 +7282,2017 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="20.42578125" style="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="16384" width="20.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Nuve/Resources/Tr/suffixes.xlsx
+++ b/Nuve/Resources/Tr/suffixes.xlsx
@@ -11,14 +11,14 @@
     <sheet name="desc" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">suffix!$A$1:$O$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">suffix!$A$1:$O$98</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="737">
   <si>
     <t>Un</t>
   </si>
@@ -71,48 +71,24 @@
     <t>yA</t>
   </si>
   <si>
-    <t>IC_HAL_YONELME_nA</t>
-  </si>
-  <si>
-    <t>nA</t>
-  </si>
-  <si>
     <t>IC_HAL_BELIRTME_(y)U</t>
   </si>
   <si>
     <t>yU</t>
   </si>
   <si>
-    <t>IC_HAL_BELIRTME_(n)U</t>
-  </si>
-  <si>
-    <t>nU</t>
-  </si>
-  <si>
     <t>IC_HAL_BULUNMA_DA</t>
   </si>
   <si>
     <t>DA</t>
   </si>
   <si>
-    <t>IC_HAL_BULUNMA_ndA</t>
-  </si>
-  <si>
-    <t>ndA</t>
-  </si>
-  <si>
     <t>IC_HAL_AYRILMA_DAn</t>
   </si>
   <si>
     <t>DAn</t>
   </si>
   <si>
-    <t>IC_HAL_AYRILMA_ndAn</t>
-  </si>
-  <si>
-    <t>ndAn</t>
-  </si>
-  <si>
     <t>IC_HAL_ILGI_(n)Un</t>
   </si>
   <si>
@@ -473,21 +449,9 @@
     <t>Ul</t>
   </si>
   <si>
-    <t>FY_ETTIRTGEN_t</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
-    <t>FY_ISTESLIK_(U)ş</t>
-  </si>
-  <si>
-    <t>Uş</t>
-  </si>
-  <si>
-    <t>Ut</t>
-  </si>
-  <si>
     <t>IY_FIIL_lA</t>
   </si>
   <si>
@@ -551,12 +515,6 @@
     <t>sUz</t>
   </si>
   <si>
-    <t>IY_ZARF_ncA</t>
-  </si>
-  <si>
-    <t>ncA</t>
-  </si>
-  <si>
     <t>IY_ZARF_CA</t>
   </si>
   <si>
@@ -599,18 +557,6 @@
     <t xml:space="preserve">a, e, ya, ye, </t>
   </si>
   <si>
-    <t xml:space="preserve">a, e, na, ne, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nı, ni, nu, nü, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nde, nda, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nden, ndan, </t>
-  </si>
-  <si>
     <t xml:space="preserve">yla, yle, la, le, </t>
   </si>
   <si>
@@ -770,15 +716,6 @@
     <t xml:space="preserve">n, ın, in, un, ün, </t>
   </si>
   <si>
-    <t xml:space="preserve">t, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ş, ış, iş, uş, üş, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">t, ıt, it, ut, üt, </t>
-  </si>
-  <si>
     <t xml:space="preserve">laş, leş, </t>
   </si>
   <si>
@@ -797,9 +734,6 @@
     <t xml:space="preserve">sı, si, su, sü, </t>
   </si>
   <si>
-    <t xml:space="preserve">nca, nce, </t>
-  </si>
-  <si>
     <t xml:space="preserve">tı, ti, tu, tü, </t>
   </si>
   <si>
@@ -890,21 +824,6 @@
     <t>ISIM_HAL</t>
   </si>
   <si>
-    <t>NNI_ABL3</t>
-  </si>
-  <si>
-    <t>kitabından, kaleminden, masasından</t>
-  </si>
-  <si>
-    <t>Bu ek de (n)U belirtme hâli gibi, zamirlerden ve iyelik eklerinden sonra gelir.</t>
-  </si>
-  <si>
-    <t>NNI_OBJ3</t>
-  </si>
-  <si>
-    <t>Soldaki misallerde görüldüğü gibi, zamirlerden ve iyelik eklerinden sonra kullanılır. IC_HAL_BELIRTME_(y)U eki 3. tekil şahıs iyelik eki ve bazı eklerden sonra y yardımcı sesi yerine n yardımcı aldığından ikinci bir ek tanımlamak durumunda kaldık.</t>
-  </si>
-  <si>
     <t>ISIM_BELIRTME_I</t>
   </si>
   <si>
@@ -920,15 +839,6 @@
     <t>NNI_LOC</t>
   </si>
   <si>
-    <t>NNI_LOC3</t>
-  </si>
-  <si>
-    <t>kitabında, kaleminde, masasında</t>
-  </si>
-  <si>
-    <t>Aynı şekilde, iyelik eklerinden ve zamirlerden sonra gelen bulunma hâli, önüne -n yardımcı sesini alır.</t>
-  </si>
-  <si>
     <t>ISIM_TAMLAYAN_IN</t>
   </si>
   <si>
@@ -953,12 +863,6 @@
     <t>NNI_DAT</t>
   </si>
   <si>
-    <t>NNI_DAT3</t>
-  </si>
-  <si>
-    <t>masasına, günlüğüne, evlerine</t>
-  </si>
-  <si>
     <t>ISIM_SAHIPLIK_BEN_IM</t>
   </si>
   <si>
@@ -1478,45 +1382,9 @@
     <t>Geçişsiz fiillere geldiğinde edilgen (öznesi belli olmayan) fiiller yapar. Geçişli fiillere geldiğinde de edilgen yapar.</t>
   </si>
   <si>
-    <t>FIIL_ETTIRGEN_TIR</t>
-  </si>
-  <si>
-    <t>VVI_CAUSD</t>
-  </si>
-  <si>
-    <t>Genelde ünlü ile biten fiillere gelmiyor ama istisnası var. "yedir". Ünlü biten fiillerde araya oldurgan t giriyor</t>
-  </si>
-  <si>
     <t>Ünlü ile biten tek heceli fiillerle ünsüzle biten bütün fiillere gelir.</t>
   </si>
   <si>
-    <t>FIIL_ETTIRGEN_TEKRAR_T</t>
-  </si>
-  <si>
-    <t>yaptırt(mak), sadece Dır ekinden sonra geliyor kabul edebiliriz sanırım</t>
-  </si>
-  <si>
-    <t>ünlü ile biten fiillere geliyor. İstisnası "de" ve "ye" ayrıca ettirgen dur elinden sonra da geliyor bol-bol</t>
-  </si>
-  <si>
-    <t>FIIL_BERABERLIK_IS</t>
-  </si>
-  <si>
-    <t>VVI_RECP</t>
-  </si>
-  <si>
-    <t>Her fiil ile anlamlı olmuyor</t>
-  </si>
-  <si>
-    <t>Örneklerde, işin ortaklaşa (birlikte) veya karşılıklı yapılması anlamı vardır. Kalışmak, gidişmek, yürüşmek gibi kurulumlar anlamlı değil ama mümkün</t>
-  </si>
-  <si>
-    <t>FIIL_OLDURGAN_T</t>
-  </si>
-  <si>
-    <t>VVI_CAUST</t>
-  </si>
-  <si>
     <t>FIIL_OLUMSUZLUK_MA</t>
   </si>
   <si>
@@ -1709,15 +1577,6 @@
     <t xml:space="preserve">ıl, il, ul, ül, n, ın, in, un, ün, </t>
   </si>
   <si>
-    <t>FY_ETTIRGEN_(U)t</t>
-  </si>
-  <si>
-    <t>dır, dir, dur, dür, tır, tir, tur, tür</t>
-  </si>
-  <si>
-    <t>FY_ETTIRTGEN_DUr</t>
-  </si>
-  <si>
     <t>genis_Ar</t>
   </si>
   <si>
@@ -1775,9 +1634,6 @@
     <t>la, le, lı, li, lu, lü</t>
   </si>
   <si>
-    <t>FY_ETTIRGEN_Dur</t>
-  </si>
-  <si>
     <t>FY_ETTIRGEN_DUr_(U)t</t>
   </si>
   <si>
@@ -1826,9 +1682,6 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>bu iki ek yerine üstteki 2 eki kullanıyoruz sanırım. Emin olduktan sonra silinebilir.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ım, im, um, üm, m, </t>
   </si>
   <si>
@@ -1917,9 +1770,6 @@
   </si>
   <si>
     <t xml:space="preserve">DUSME_UNLU, DONUSUM_U, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DONUSUM_U, DONUSUM_D, </t>
   </si>
   <si>
     <t xml:space="preserve">DONUSUM_U, DONUSUM_C, </t>
@@ -2102,20 +1952,6 @@
   </si>
   <si>
     <r>
-      <t>masasını, kalemini, kitabın</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="162"/>
-      </rPr>
-      <t>ı, onu, bunu, şunu, günlüğünü, evlerini</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">kitapta, kalemde, masada, </t>
     </r>
     <r>
@@ -2568,48 +2404,6 @@
         <charset val="162"/>
       </rPr>
       <t>veril(iyor), bozul(du), küçüldü</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>arttır, güldür, sektir,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="162"/>
-      </rPr>
-      <t xml:space="preserve"> sevdir(mek), yazdır(mak), sordur(mak), seçtir(mek), koştur(mak), sürçtür(mek)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">çıkart, küçült, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="162"/>
-      </rPr>
-      <t>akıt(mak), ürküt(mek), korkut(mak), eğit(mek)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">koşuşmak, dövüş, kaçış, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="162"/>
-      </rPr>
-      <t>bekleş(mek), itiş(mek)</t>
     </r>
   </si>
   <si>
@@ -2847,6 +2641,189 @@
   </si>
   <si>
     <t>2nd person plural</t>
+  </si>
+  <si>
+    <t>Conditional aux</t>
+  </si>
+  <si>
+    <t>Dubitative aux</t>
+  </si>
+  <si>
+    <t>Past aux</t>
+  </si>
+  <si>
+    <t>Imperative second person plural</t>
+  </si>
+  <si>
+    <t>Imperative second person plural (polite)</t>
+  </si>
+  <si>
+    <t>Imperative third person singular</t>
+  </si>
+  <si>
+    <t>Imperative third person plural</t>
+  </si>
+  <si>
+    <t>Optative Mood</t>
+  </si>
+  <si>
+    <t>Necessitative Mood</t>
+  </si>
+  <si>
+    <t>Conditional Mood</t>
+  </si>
+  <si>
+    <t>Imperative second person singular</t>
+  </si>
+  <si>
+    <t>Past tense</t>
+  </si>
+  <si>
+    <t>Narrative past tense</t>
+  </si>
+  <si>
+    <t>Future Tense</t>
+  </si>
+  <si>
+    <t>Progressive Tense</t>
+  </si>
+  <si>
+    <t>Aorist tense</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>EverSince</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Hastily</t>
+  </si>
+  <si>
+    <t>Almost</t>
+  </si>
+  <si>
+    <t>Abilitative</t>
+  </si>
+  <si>
+    <t>Negative Abilitative</t>
+  </si>
+  <si>
+    <t>Infinitive</t>
+  </si>
+  <si>
+    <t>Futurue Participle</t>
+  </si>
+  <si>
+    <t>Present Participle</t>
+  </si>
+  <si>
+    <t>FeelLike</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>Past participle</t>
+  </si>
+  <si>
+    <t>Negative Aorist participle</t>
+  </si>
+  <si>
+    <t>Narrative participle</t>
+  </si>
+  <si>
+    <t>adverb (since doing so)</t>
+  </si>
+  <si>
+    <t>adverb (by doing so)</t>
+  </si>
+  <si>
+    <t>adverb (by doing repeatedly)</t>
+  </si>
+  <si>
+    <t>adverb (adamantly)</t>
+  </si>
+  <si>
+    <t>adverb (after doing so)</t>
+  </si>
+  <si>
+    <t>adverb (when doing so)</t>
+  </si>
+  <si>
+    <t>adverb (as if doing so)</t>
+  </si>
+  <si>
+    <t>adverb (as long as doing so)</t>
+  </si>
+  <si>
+    <t>adverb (without having done so)</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>act of dogin so</t>
+  </si>
+  <si>
+    <t>agentive case</t>
+  </si>
+  <si>
+    <t>passive reflexive</t>
+  </si>
+  <si>
+    <t>reflexive</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>casusative</t>
+  </si>
+  <si>
+    <t>Become</t>
+  </si>
+  <si>
+    <t>diminitive</t>
+  </si>
+  <si>
+    <t>Ness</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>Related</t>
+  </si>
+  <si>
+    <t>Without</t>
+  </si>
+  <si>
+    <t>adverb (as if it were so)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflection </t>
+  </si>
+  <si>
+    <t>Numeric Order</t>
+  </si>
+  <si>
+    <t>distributive case</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>conjugate</t>
+  </si>
+  <si>
+    <t>Short Description</t>
   </si>
 </sst>
 </file>
@@ -2895,24 +2872,12 @@
       <name val="Consolas"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2927,30 +2892,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3256,39 +3207,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O110" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:O110"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O100" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:O100"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="id" dataDxfId="22"/>
-    <tableColumn id="2" name="lexicalForm" dataDxfId="21"/>
-    <tableColumn id="3" name="sub-type" dataDxfId="20"/>
-    <tableColumn id="4" name="type" dataDxfId="19"/>
-    <tableColumn id="5" name="Alt tür" dataDxfId="18"/>
-    <tableColumn id="6" name="Grup" dataDxfId="17"/>
-    <tableColumn id="7" name="flags" dataDxfId="16"/>
-    <tableColumn id="8" name="rules" dataDxfId="15"/>
-    <tableColumn id="9" name="surfaces" dataDxfId="14"/>
-    <tableColumn id="15" name="emptySurface" dataDxfId="13"/>
-    <tableColumn id="10" name="Zemberek Karşılığı" dataDxfId="12"/>
-    <tableColumn id="11" name="Oflazer Karşılığı" dataDxfId="11"/>
-    <tableColumn id="12" name="Örnekler" dataDxfId="10"/>
-    <tableColumn id="13" name="İstisnalar" dataDxfId="9"/>
-    <tableColumn id="14" name="Açıklama" dataDxfId="8"/>
+    <tableColumn id="1" name="id" dataDxfId="21"/>
+    <tableColumn id="2" name="lexicalForm" dataDxfId="20"/>
+    <tableColumn id="3" name="sub-type" dataDxfId="19"/>
+    <tableColumn id="4" name="type" dataDxfId="18"/>
+    <tableColumn id="5" name="Alt tür" dataDxfId="17"/>
+    <tableColumn id="6" name="Grup" dataDxfId="16"/>
+    <tableColumn id="7" name="flags" dataDxfId="15"/>
+    <tableColumn id="8" name="rules" dataDxfId="14"/>
+    <tableColumn id="9" name="surfaces" dataDxfId="13"/>
+    <tableColumn id="15" name="emptySurface" dataDxfId="12"/>
+    <tableColumn id="10" name="Zemberek Karşılığı" dataDxfId="11"/>
+    <tableColumn id="11" name="Oflazer Karşılığı" dataDxfId="10"/>
+    <tableColumn id="12" name="Örnekler" dataDxfId="9"/>
+    <tableColumn id="13" name="İstisnalar" dataDxfId="8"/>
+    <tableColumn id="14" name="Açıklama" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:F106" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F106"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="id" dataDxfId="5"/>
-    <tableColumn id="11" name="Oflazer Karşılığı" dataDxfId="0"/>
-    <tableColumn id="2" name="lexicalForm" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22" displayName="Table22" ref="A1:E100" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E100"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="id" dataDxfId="4"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="1"/>
     <tableColumn id="9" name="surfaces" dataDxfId="3"/>
-    <tableColumn id="10" name="Zemberek Karşılığı" dataDxfId="2"/>
-    <tableColumn id="12" name="Örnekler" dataDxfId="1"/>
+    <tableColumn id="12" name="Örnekler" dataDxfId="2"/>
+    <tableColumn id="10" name="Zemberek Karşılığı" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3581,13 +3531,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A1:O110"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3612,49 +3562,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>600</v>
+        <v>552</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -3668,31 +3618,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -3706,34 +3656,34 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>643</v>
+        <v>593</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -3747,34 +3697,34 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -3788,34 +3738,34 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>605</v>
+        <v>556</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>645</v>
+        <v>595</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -3829,31 +3779,31 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -3867,31 +3817,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>613</v>
+        <v>564</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>607</v>
+        <v>558</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>647</v>
+        <v>597</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>332</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -3905,28 +3855,28 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>648</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3940,63 +3890,66 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>611</v>
+        <v>562</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>649</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>653</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>614</v>
+        <v>566</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>193</v>
+        <v>561</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>312</v>
+        <v>600</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -4007,38 +3960,35 @@
         <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>707</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>615</v>
+        <v>568</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>297</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4048,28 +3998,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>616</v>
+        <v>568</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>194</v>
+        <v>559</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>294</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -4083,32 +4033,35 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>617</v>
+        <v>566</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>652</v>
+        <v>603</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4118,28 +4071,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>301</v>
+        <v>604</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -4153,224 +4109,215 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>608</v>
+        <v>532</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>653</v>
+        <v>258</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
+      <c r="A16" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>289</v>
+        <v>551</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>292</v>
+        <v>652</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="N16" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>511</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>654</v>
+        <v>176</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>305</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>655</v>
+        <v>605</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>277</v>
+        <v>303</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>640</v>
+        <v>566</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>579</v>
+        <v>181</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>281</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>559</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>599</v>
+        <v>524</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="N20" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>555</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>277</v>
+        <v>303</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>612</v>
+        <v>566</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>557</v>
+        <v>183</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -4384,34 +4331,25 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>359</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -4419,159 +4357,153 @@
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>657</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>616</v>
+        <v>310</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>658</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>615</v>
+        <v>310</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>659</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>660</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>612</v>
+        <v>567</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -4585,22 +4517,31 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>342</v>
+        <v>304</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>570</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -4614,22 +4555,31 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>342</v>
+        <v>304</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>348</v>
+        <v>320</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>349</v>
+        <v>610</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -4643,25 +4593,31 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>641</v>
+        <v>566</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>344</v>
+        <v>306</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>307</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>345</v>
+        <v>611</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -4675,25 +4631,31 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>350</v>
+        <v>301</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>351</v>
+        <v>612</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -4707,31 +4669,25 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -4745,31 +4701,25 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="M33" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -4777,342 +4727,348 @@
         <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>615</v>
+        <v>567</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>269</v>
+        <v>182</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>620</v>
+        <v>572</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>621</v>
+        <v>573</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>372</v>
+        <v>342</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>545</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>612</v>
+        <v>569</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>380</v>
+        <v>355</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>381</v>
+        <v>613</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>622</v>
+        <v>567</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>382</v>
+        <v>359</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>383</v>
+        <v>614</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>376</v>
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>593</v>
+        <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>78</v>
@@ -5121,28 +5077,34 @@
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="L44" s="1" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>386</v>
+        <v>616</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -5156,31 +5118,34 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L45" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="M45" s="1" t="s">
-        <v>664</v>
+        <v>592</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>390</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -5194,31 +5159,31 @@
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>571</v>
+        <v>99</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>665</v>
+        <v>617</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -5232,28 +5197,31 @@
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>571</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>702</v>
+        <v>565</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>666</v>
+        <v>618</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -5267,34 +5235,31 @@
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>571</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>697</v>
+        <v>565</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>400</v>
+        <v>619</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -5308,38 +5273,35 @@
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>571</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>698</v>
+        <v>565</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>601</v>
+        <v>207</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>554</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -5349,35 +5311,32 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>614</v>
+        <v>566</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>668</v>
+        <v>386</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -5387,35 +5346,38 @@
         <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -5425,35 +5387,35 @@
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>670</v>
+        <v>622</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -5463,183 +5425,159 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>671</v>
+        <v>623</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="M56" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>426</v>
+        <v>625</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>103</v>
+      <c r="A57" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>429</v>
+        <v>626</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5650,124 +5588,112 @@
         <v>106</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>577</v>
+        <v>408</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>675</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>676</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>702</v>
+        <v>649</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>219</v>
+        <v>531</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>677</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -5778,28 +5704,28 @@
         <v>114</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>624</v>
+        <v>563</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -5807,176 +5733,182 @@
         <v>115</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>443</v>
+        <v>419</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>444</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>445</v>
+        <v>178</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>446</v>
+        <v>422</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>703</v>
+        <v>576</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>447</v>
+        <v>219</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>450</v>
+        <v>628</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>678</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>624</v>
+        <v>566</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>192</v>
+        <v>222</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>454</v>
+        <v>629</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -5987,22 +5919,25 @@
         <v>126</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -6013,31 +5948,28 @@
         <v>128</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="L70" s="1" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>679</v>
+        <v>630</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -6048,25 +5980,31 @@
         <v>130</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>626</v>
+        <v>580</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>460</v>
+        <v>436</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>461</v>
+        <v>631</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -6077,28 +6015,25 @@
         <v>132</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -6109,25 +6044,25 @@
         <v>134</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>627</v>
+        <v>581</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -6135,31 +6070,34 @@
         <v>135</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>628</v>
+        <v>563</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -6170,31 +6108,25 @@
         <v>138</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>629</v>
+        <v>563</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>469</v>
+        <v>229</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>470</v>
+        <v>443</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -6205,25 +6137,31 @@
         <v>140</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>472</v>
+        <v>632</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -6231,1048 +6169,725 @@
         <v>141</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>473</v>
+        <v>445</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>474</v>
+        <v>447</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>143</v>
+        <v>542</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>612</v>
+        <v>99</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>502</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>145</v>
+        <v>517</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>431</v>
+        <v>372</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>247</v>
+        <v>518</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>475</v>
+        <v>633</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>476</v>
+        <v>452</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>147</v>
+        <v>538</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>431</v>
+        <v>99</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>683</v>
+        <v>540</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>505</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>149</v>
+        <v>539</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>590</v>
+        <v>144</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>51</v>
+        <v>145</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>51</v>
+        <v>537</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>561</v>
+        <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>404</v>
+        <v>464</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>699</v>
+        <v>563</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>562</v>
+        <v>232</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>586</v>
+        <v>148</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>38</v>
+        <v>149</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>700</v>
+        <v>573</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>489</v>
+        <v>549</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>587</v>
+        <v>150</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>585</v>
-      </c>
       <c r="B86" s="1" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>564</v>
+        <v>234</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>563</v>
+      <c r="A87" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>404</v>
+        <v>470</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>252</v>
+        <v>548</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>480</v>
+        <v>637</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>404</v>
+        <v>480</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>490</v>
+        <v>478</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>492</v>
+        <v>638</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>565</v>
+        <v>158</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>404</v>
+        <v>480</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>404</v>
+        <v>480</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>632</v>
+        <v>563</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>584</v>
+        <v>237</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>612</v>
+        <v>567</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>253</v>
+        <v>547</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>511</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>597</v>
+        <v>543</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>515</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>634</v>
+        <v>579</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>517</v>
+        <v>434</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>689</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>704</v>
+        <v>563</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>255</v>
+        <v>521</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>690</v>
+        <v>505</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>705</v>
+        <v>567</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>596</v>
+        <v>238</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>691</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>632</v>
+        <v>583</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>692</v>
+        <v>642</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>616</v>
+        <v>565</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>594</v>
+        <v>240</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>527</v>
+        <v>501</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>172</v>
+        <v>523</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>173</v>
+        <v>535</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>107</v>
+        <v>524</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E99" s="1" t="s">
         <v>524</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>257</v>
+        <v>536</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>174</v>
+        <v>529</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>534</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>107</v>
+        <v>524</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E100" s="1" t="s">
         <v>524</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>635</v>
+        <v>563</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="K101" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="L107" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -7286,2008 +6901,1704 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="20.42578125" style="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1"/>
+    <col min="5" max="5" width="41" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="20.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>736</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>708</v>
+        <v>654</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>709</v>
+        <v>655</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>554</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>711</v>
+        <v>657</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>0</v>
+        <v>555</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>713</v>
+        <v>659</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>556</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>710</v>
+        <v>656</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>557</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>712</v>
+        <v>658</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>558</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>714</v>
+        <v>660</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>598</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" t="s">
+        <v>692</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>693</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>692</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>694</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>695</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>696</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>700</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
+        <v>702</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>707</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C74" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
         <v>717</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C75" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" t="s">
         <v>718</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" t="s">
+        <v>718</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="C88" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="C89" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" t="s">
+        <v>728</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" t="s">
         <v>729</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E97" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="D98" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    </row>
+    <row r="99" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="E94" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row r="100" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="B100" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="F106" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D106" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nuve/Resources/Tr/suffixes.xlsx
+++ b/Nuve/Resources/Tr/suffixes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="930" windowWidth="15240" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="930" windowWidth="15240" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="suffix" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="738">
   <si>
     <t>Un</t>
   </si>
@@ -1779,9 +1779,6 @@
   </si>
   <si>
     <t xml:space="preserve">DONUSUM_C, DONUSUM_A, </t>
-  </si>
-  <si>
-    <t>DONUSUM_U</t>
   </si>
   <si>
     <t>DONUSUM_U, DUSME_UNSUZ, OZEL_N</t>
@@ -2824,6 +2821,12 @@
   </si>
   <si>
     <t>Short Description</t>
+  </si>
+  <si>
+    <t>DONUSUM_U, ALTTIRE_KALDIR</t>
+  </si>
+  <si>
+    <t>DONUSUM_A, ALTTIRE_KALDIR</t>
   </si>
 </sst>
 </file>
@@ -3235,9 +3238,9 @@
   <autoFilter ref="A1:E100"/>
   <tableColumns count="5">
     <tableColumn id="1" name="id" dataDxfId="4"/>
-    <tableColumn id="11" name="Short Description" dataDxfId="1"/>
-    <tableColumn id="9" name="surfaces" dataDxfId="3"/>
-    <tableColumn id="12" name="Örnekler" dataDxfId="2"/>
+    <tableColumn id="11" name="Short Description" dataDxfId="3"/>
+    <tableColumn id="9" name="surfaces" dataDxfId="2"/>
+    <tableColumn id="12" name="Örnekler" dataDxfId="1"/>
     <tableColumn id="10" name="Zemberek Karşılığı" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3533,11 +3536,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3547,9 +3550,9 @@
     <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="62.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3677,7 +3680,7 @@
         <v>282</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>284</v>
@@ -3718,7 +3721,7 @@
         <v>296</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>297</v>
@@ -3747,7 +3750,7 @@
         <v>283</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>556</v>
@@ -3759,7 +3762,7 @@
         <v>290</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>291</v>
@@ -3800,7 +3803,7 @@
         <v>287</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>288</v>
@@ -3838,7 +3841,7 @@
         <v>299</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>300</v>
@@ -3864,7 +3867,7 @@
         <v>283</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>177</v>
@@ -3876,7 +3879,7 @@
         <v>294</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -3911,7 +3914,7 @@
         <v>280</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -3922,7 +3925,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>524</v>
@@ -3946,7 +3949,7 @@
         <v>269</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>270</v>
@@ -3984,7 +3987,7 @@
         <v>272</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -4019,7 +4022,7 @@
         <v>266</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -4054,7 +4057,7 @@
         <v>274</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>275</v>
@@ -4092,7 +4095,7 @@
         <v>277</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>278</v>
@@ -4115,7 +4118,7 @@
         <v>255</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>532</v>
@@ -4144,7 +4147,7 @@
         <v>551</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>515</v>
@@ -4215,7 +4218,7 @@
         <v>324</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>326</v>
@@ -4253,7 +4256,7 @@
         <v>309</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -4285,7 +4288,7 @@
         <v>316</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -4317,7 +4320,7 @@
         <v>312</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -4349,7 +4352,7 @@
         <v>318</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -4462,7 +4465,7 @@
         <v>310</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>187</v>
@@ -4576,7 +4579,7 @@
         <v>321</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>322</v>
@@ -4614,7 +4617,7 @@
         <v>307</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>308</v>
@@ -4652,7 +4655,7 @@
         <v>302</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>305</v>
@@ -4987,7 +4990,7 @@
         <v>356</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>358</v>
@@ -5025,7 +5028,7 @@
         <v>360</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>361</v>
@@ -5051,7 +5054,7 @@
         <v>357</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>201</v>
@@ -5063,7 +5066,7 @@
         <v>363</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -5086,7 +5089,7 @@
         <v>357</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>202</v>
@@ -5098,7 +5101,7 @@
         <v>367</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>368</v>
@@ -5127,7 +5130,7 @@
         <v>357</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>203</v>
@@ -5142,7 +5145,7 @@
         <v>365</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>510</v>
@@ -5180,7 +5183,7 @@
         <v>371</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O46" s="1" t="s">
         <v>374</v>
@@ -5218,7 +5221,7 @@
         <v>376</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>377</v>
@@ -5256,7 +5259,7 @@
         <v>379</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>380</v>
@@ -5294,7 +5297,7 @@
         <v>382</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>383</v>
@@ -5370,7 +5373,7 @@
         <v>389</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>391</v>
@@ -5408,7 +5411,7 @@
         <v>393</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>394</v>
@@ -5446,7 +5449,7 @@
         <v>396</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="O53" s="1" t="s">
         <v>397</v>
@@ -5481,7 +5484,7 @@
         <v>398</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -5545,7 +5548,7 @@
         <v>404</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -5565,7 +5568,7 @@
         <v>407</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>201</v>
@@ -5577,7 +5580,7 @@
         <v>406</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -5687,7 +5690,7 @@
         <v>407</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>531</v>
@@ -5757,7 +5760,7 @@
         <v>420</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -5844,7 +5847,7 @@
         <v>426</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>427</v>
@@ -5905,7 +5908,7 @@
         <v>430</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O68" s="1" t="s">
         <v>431</v>
@@ -5966,7 +5969,7 @@
         <v>434</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>435</v>
@@ -6001,7 +6004,7 @@
         <v>437</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>438</v>
@@ -6158,7 +6161,7 @@
         <v>460</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>461</v>
@@ -6233,7 +6236,7 @@
         <v>372</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>518</v>
@@ -6245,7 +6248,7 @@
         <v>451</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>452</v>
@@ -6265,7 +6268,7 @@
         <v>99</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>540</v>
@@ -6285,7 +6288,7 @@
         <v>99</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>541</v>
@@ -6320,7 +6323,7 @@
         <v>463</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>516</v>
@@ -6419,7 +6422,7 @@
         <v>473</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -6439,7 +6442,7 @@
         <v>470</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>234</v>
@@ -6451,7 +6454,7 @@
         <v>475</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -6471,7 +6474,7 @@
         <v>470</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>548</v>
@@ -6483,7 +6486,7 @@
         <v>477</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -6515,7 +6518,7 @@
         <v>479</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -6611,7 +6614,7 @@
         <v>488</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -6643,7 +6646,7 @@
         <v>490</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -6675,7 +6678,7 @@
         <v>492</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -6800,7 +6803,7 @@
         <v>496</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>498</v>
@@ -6855,7 +6858,7 @@
         <v>524</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>587</v>
+        <v>736</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>536</v>
@@ -6884,7 +6887,7 @@
         <v>524</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>563</v>
+        <v>737</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>533</v>
@@ -6903,7 +6906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
@@ -6922,7 +6925,7 @@
         <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>245</v>
@@ -6939,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>176</v>
@@ -6956,13 +6959,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>554</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>281</v>
@@ -6973,13 +6976,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>555</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>295</v>
@@ -6990,13 +6993,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>289</v>
@@ -7007,13 +7010,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>286</v>
@@ -7024,13 +7027,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>558</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>298</v>
@@ -7041,13 +7044,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>293</v>
@@ -7058,13 +7061,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>562</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>279</v>
@@ -7075,13 +7078,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>561</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>268</v>
@@ -7092,13 +7095,13 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>560</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>271</v>
@@ -7109,13 +7112,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>559</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>265</v>
@@ -7126,13 +7129,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>544</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>273</v>
@@ -7143,13 +7146,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>179</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>276</v>
@@ -7160,7 +7163,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>532</v>
@@ -7177,7 +7180,7 @@
         <v>528</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>515</v>
@@ -7190,7 +7193,7 @@
         <v>511</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>176</v>
@@ -7203,13 +7206,13 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>323</v>
@@ -7220,13 +7223,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>309</v>
@@ -7237,13 +7240,13 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>316</v>
@@ -7254,13 +7257,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>312</v>
@@ -7271,13 +7274,13 @@
         <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>318</v>
@@ -7288,7 +7291,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>176</v>
@@ -7305,7 +7308,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>185</v>
@@ -7322,7 +7325,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>186</v>
@@ -7339,7 +7342,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>187</v>
@@ -7356,7 +7359,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>188</v>
@@ -7390,13 +7393,13 @@
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>320</v>
@@ -7407,13 +7410,13 @@
         <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>306</v>
@@ -7424,13 +7427,13 @@
         <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>301</v>
@@ -7441,7 +7444,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>191</v>
@@ -7458,7 +7461,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>192</v>
@@ -7475,7 +7478,7 @@
         <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>182</v>
@@ -7492,7 +7495,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>193</v>
@@ -7509,7 +7512,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>194</v>
@@ -7526,7 +7529,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>195</v>
@@ -7543,7 +7546,7 @@
         <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>196</v>
@@ -7560,7 +7563,7 @@
         <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>197</v>
@@ -7577,7 +7580,7 @@
         <v>545</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>198</v>
@@ -7594,13 +7597,13 @@
         <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>355</v>
@@ -7611,13 +7614,13 @@
         <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>359</v>
@@ -7628,13 +7631,13 @@
         <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>362</v>
@@ -7645,13 +7648,13 @@
         <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>366</v>
@@ -7662,13 +7665,13 @@
         <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>203</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>364</v>
@@ -7679,13 +7682,13 @@
         <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>204</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>370</v>
@@ -7696,13 +7699,13 @@
         <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>205</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>375</v>
@@ -7713,13 +7716,13 @@
         <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>378</v>
@@ -7730,13 +7733,13 @@
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>207</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>381</v>
@@ -7747,7 +7750,7 @@
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>208</v>
@@ -7764,13 +7767,13 @@
         <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>388</v>
@@ -7781,13 +7784,13 @@
         <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>392</v>
@@ -7798,13 +7801,13 @@
         <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>395</v>
@@ -7815,13 +7818,13 @@
         <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>212</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>530</v>
@@ -7832,7 +7835,7 @@
         <v>100</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>213</v>
@@ -7849,13 +7852,13 @@
         <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>214</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>403</v>
@@ -7866,13 +7869,13 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>405</v>
@@ -7883,7 +7886,7 @@
         <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>215</v>
@@ -7900,7 +7903,7 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>216</v>
@@ -7917,7 +7920,7 @@
         <v>109</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>217</v>
@@ -7934,7 +7937,7 @@
         <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>531</v>
@@ -7949,7 +7952,7 @@
         <v>113</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>218</v>
@@ -7966,13 +7969,13 @@
         <v>115</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>419</v>
@@ -7983,7 +7986,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>178</v>
@@ -7998,7 +8001,7 @@
         <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>219</v>
@@ -8013,13 +8016,13 @@
         <v>119</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>425</v>
@@ -8030,7 +8033,7 @@
         <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>221</v>
@@ -8047,13 +8050,13 @@
         <v>123</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>222</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>430</v>
@@ -8064,7 +8067,7 @@
         <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>223</v>
@@ -8081,13 +8084,13 @@
         <v>127</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>434</v>
@@ -8098,13 +8101,13 @@
         <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>436</v>
@@ -8115,7 +8118,7 @@
         <v>131</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>226</v>
@@ -8132,7 +8135,7 @@
         <v>133</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>227</v>
@@ -8149,7 +8152,7 @@
         <v>135</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>228</v>
@@ -8166,7 +8169,7 @@
         <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>229</v>
@@ -8181,13 +8184,13 @@
         <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>230</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>459</v>
@@ -8198,7 +8201,7 @@
         <v>141</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>231</v>
@@ -8215,7 +8218,7 @@
         <v>542</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>43</v>
@@ -8228,13 +8231,13 @@
         <v>517</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>518</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>450</v>
@@ -8245,7 +8248,7 @@
         <v>538</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>540</v>
@@ -8258,7 +8261,7 @@
         <v>539</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>541</v>
@@ -8274,7 +8277,7 @@
         <v>537</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>462</v>
@@ -8285,7 +8288,7 @@
         <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>232</v>
@@ -8302,7 +8305,7 @@
         <v>148</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>549</v>
@@ -8319,13 +8322,13 @@
         <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>233</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>472</v>
@@ -8336,13 +8339,13 @@
         <v>152</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>474</v>
@@ -8353,13 +8356,13 @@
         <v>154</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>548</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>476</v>
@@ -8370,13 +8373,13 @@
         <v>156</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>478</v>
@@ -8387,7 +8390,7 @@
         <v>158</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>546</v>
@@ -8404,7 +8407,7 @@
         <v>160</v>
       </c>
       <c r="B90" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>236</v>
@@ -8421,13 +8424,13 @@
         <v>162</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>487</v>
@@ -8438,13 +8441,13 @@
         <v>163</v>
       </c>
       <c r="B92" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>547</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>489</v>
@@ -8455,13 +8458,13 @@
         <v>165</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>543</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>491</v>
@@ -8472,7 +8475,7 @@
         <v>167</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>224</v>
@@ -8489,7 +8492,7 @@
         <v>168</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>521</v>
@@ -8506,7 +8509,7 @@
         <v>170</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>238</v>
@@ -8523,13 +8526,13 @@
         <v>172</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>495</v>
@@ -8540,7 +8543,7 @@
         <v>174</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>240</v>
@@ -8557,7 +8560,7 @@
         <v>523</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>536</v>
@@ -8574,7 +8577,7 @@
         <v>529</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>533</v>

--- a/Nuve/Resources/Tr/suffixes.xlsx
+++ b/Nuve/Resources/Tr/suffixes.xlsx
@@ -11,14 +11,14 @@
     <sheet name="desc" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">suffix!$A$1:$O$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">suffix!$A$1:$O$99</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="739">
   <si>
     <t>Un</t>
   </si>
@@ -2827,6 +2827,9 @@
   </si>
   <si>
     <t>DONUSUM_A, ALTTIRE_KALDIR</t>
+  </si>
+  <si>
+    <t>FC_KIP_EMIR_0</t>
   </si>
 </sst>
 </file>
@@ -3210,8 +3213,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O100" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:O100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O101" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:O101"/>
   <tableColumns count="15">
     <tableColumn id="1" name="id" dataDxfId="21"/>
     <tableColumn id="2" name="lexicalForm" dataDxfId="20"/>
@@ -3534,13 +3537,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4663,42 +4666,37 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
@@ -4716,21 +4714,21 @@
         <v>566</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>1</v>
@@ -4745,24 +4743,24 @@
         <v>334</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
@@ -4777,24 +4775,24 @@
         <v>334</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1</v>
@@ -4809,27 +4807,24 @@
         <v>334</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1</v>
@@ -4844,24 +4839,27 @@
         <v>334</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
@@ -4876,24 +4874,24 @@
         <v>334</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
@@ -4911,24 +4909,21 @@
         <v>573</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>545</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
@@ -4943,27 +4938,27 @@
         <v>334</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>545</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
@@ -4975,33 +4970,30 @@
         <v>333</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1</v>
@@ -5016,30 +5008,30 @@
         <v>357</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1</v>
@@ -5054,27 +5046,30 @@
         <v>357</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>647</v>
+        <v>567</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1</v>
@@ -5089,33 +5084,27 @@
         <v>357</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>369</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -5130,71 +5119,74 @@
         <v>357</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>553</v>
+        <v>202</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>591</v>
+        <v>615</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>510</v>
+        <v>369</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>99</v>
+        <v>524</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>565</v>
+        <v>643</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>374</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1</v>
@@ -5212,27 +5204,27 @@
         <v>565</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>1</v>
@@ -5250,27 +5242,27 @@
         <v>565</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1</v>
@@ -5288,27 +5280,27 @@
         <v>565</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1</v>
@@ -5320,30 +5312,33 @@
         <v>372</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>386</v>
+        <v>619</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1</v>
@@ -5355,36 +5350,30 @@
         <v>372</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>519</v>
+        <v>385</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>620</v>
+        <v>386</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
@@ -5396,33 +5385,36 @@
         <v>372</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>519</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
@@ -5440,59 +5432,65 @@
         <v>565</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>399</v>
+        <v>372</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>530</v>
+        <v>395</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>99</v>
@@ -5504,27 +5502,27 @@
         <v>399</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>402</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>99</v>
@@ -5539,24 +5537,24 @@
         <v>563</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>624</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>99</v>
@@ -5565,30 +5563,30 @@
         <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>647</v>
+        <v>563</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>99</v>
@@ -5600,27 +5598,27 @@
         <v>407</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>410</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>99</v>
@@ -5632,24 +5630,27 @@
         <v>407</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>99</v>
@@ -5664,21 +5665,21 @@
         <v>576</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -5690,21 +5691,24 @@
         <v>407</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>648</v>
+        <v>576</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>531</v>
+        <v>217</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>99</v>
@@ -5716,27 +5720,21 @@
         <v>407</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>218</v>
+        <v>531</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>99</v>
@@ -5748,27 +5746,27 @@
         <v>407</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>626</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>99</v>
@@ -5777,27 +5775,30 @@
         <v>99</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>423</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>99</v>
@@ -5809,21 +5810,24 @@
         <v>421</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>99</v>
@@ -5835,30 +5839,21 @@
         <v>421</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>426</v>
+        <v>219</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>99</v>
@@ -5870,24 +5865,30 @@
         <v>421</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>429</v>
+        <v>627</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>99</v>
@@ -5899,27 +5900,24 @@
         <v>421</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>99</v>
@@ -5931,24 +5929,27 @@
         <v>421</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>433</v>
+        <v>628</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>99</v>
@@ -5960,27 +5961,24 @@
         <v>421</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>99</v>
@@ -5992,30 +5990,27 @@
         <v>421</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>438</v>
+        <v>629</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>99</v>
@@ -6027,24 +6022,30 @@
         <v>421</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>440</v>
+        <v>630</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>99</v>
@@ -6056,88 +6057,88 @@
         <v>421</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="L74" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>563</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>444</v>
+        <v>457</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>99</v>
@@ -6149,30 +6150,24 @@
         <v>399</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>460</v>
+        <v>229</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>461</v>
+        <v>443</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>99</v>
@@ -6181,160 +6176,160 @@
         <v>99</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>448</v>
+        <v>631</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>542</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E78" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="I78" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="I79" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>453</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>30</v>
+        <v>142</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E80" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="H80" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>540</v>
+        <v>518</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>144</v>
+        <v>539</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="H82" s="1" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>99</v>
@@ -6349,24 +6344,27 @@
         <v>563</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>232</v>
+        <v>537</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>467</v>
+        <v>633</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>99</v>
@@ -6375,30 +6373,30 @@
         <v>99</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>549</v>
+        <v>232</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>99</v>
@@ -6410,27 +6408,27 @@
         <v>470</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>233</v>
+        <v>549</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>634</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>99</v>
@@ -6442,27 +6440,27 @@
         <v>470</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>649</v>
+        <v>584</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>99</v>
@@ -6474,27 +6472,27 @@
         <v>470</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>548</v>
+        <v>234</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>99</v>
@@ -6503,30 +6501,30 @@
         <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>235</v>
+        <v>548</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>99</v>
@@ -6538,27 +6536,27 @@
         <v>480</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>546</v>
+        <v>235</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>483</v>
+        <v>637</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>99</v>
@@ -6570,27 +6568,27 @@
         <v>480</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>236</v>
+        <v>546</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>99</v>
@@ -6602,30 +6600,30 @@
         <v>480</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>638</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>99</v>
@@ -6634,27 +6632,27 @@
         <v>480</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>547</v>
+        <v>237</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1</v>
@@ -6663,33 +6661,33 @@
         <v>99</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>99</v>
@@ -6698,24 +6696,27 @@
         <v>493</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>224</v>
+        <v>543</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>434</v>
+        <v>491</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>494</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>99</v>
@@ -6724,33 +6725,27 @@
         <v>99</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>521</v>
+        <v>224</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>503</v>
+        <v>434</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>99</v>
@@ -6759,27 +6754,33 @@
         <v>99</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>238</v>
+        <v>521</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>507</v>
+        <v>522</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>99</v>
@@ -6788,33 +6789,27 @@
         <v>99</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>99</v>
@@ -6826,59 +6821,65 @@
         <v>497</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>501</v>
+        <v>641</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>523</v>
+        <v>174</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>535</v>
+        <v>175</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>524</v>
+        <v>99</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>524</v>
+        <v>99</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>736</v>
+        <v>565</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>536</v>
+        <v>240</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>525</v>
+        <v>499</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>527</v>
+        <v>501</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>524</v>
@@ -6887,9 +6888,38 @@
         <v>524</v>
       </c>
       <c r="H100" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>533</v>
       </c>
     </row>

--- a/Nuve/Resources/Tr/suffixes.xlsx
+++ b/Nuve/Resources/Tr/suffixes.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="740">
   <si>
     <t>Un</t>
   </si>
@@ -2544,9 +2544,6 @@
     <t xml:space="preserve">OZEL_UYOR, DONUSUM_U, </t>
   </si>
   <si>
-    <t xml:space="preserve">OZEL_GZ, DUSME_UNLU_GZ, DONUSUM_U, DONUSUM_A, </t>
-  </si>
-  <si>
     <t xml:space="preserve">OZEL_EDILGEN, DUSME_UNLU, DONUSUM_U, </t>
   </si>
   <si>
@@ -2830,6 +2827,12 @@
   </si>
   <si>
     <t>FC_KIP_EMIR_0</t>
+  </si>
+  <si>
+    <t>yım, yim, yum, yüm, ım, im, um, üm, m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GZ_OLUMSUZ, OZEL_GZ, DUSME_UNLU_GZ, DONUSUM_U, DONUSUM_A, </t>
   </si>
 </sst>
 </file>
@@ -3540,10 +3543,10 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3928,7 +3931,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>524</v>
@@ -4150,7 +4153,7 @@
         <v>551</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>515</v>
@@ -4253,7 +4256,7 @@
         <v>566</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>181</v>
+        <v>738</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>309</v>
@@ -4666,7 +4669,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
@@ -5084,7 +5087,7 @@
         <v>357</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>201</v>
@@ -5160,7 +5163,7 @@
         <v>357</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>643</v>
+        <v>739</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>203</v>
@@ -5598,7 +5601,7 @@
         <v>407</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>201</v>
@@ -5720,7 +5723,7 @@
         <v>407</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>531</v>
@@ -6266,7 +6269,7 @@
         <v>372</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>518</v>
@@ -6298,7 +6301,7 @@
         <v>99</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>540</v>
@@ -6318,7 +6321,7 @@
         <v>99</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>541</v>
@@ -6472,7 +6475,7 @@
         <v>470</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>234</v>
@@ -6504,7 +6507,7 @@
         <v>470</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>548</v>
@@ -6888,7 +6891,7 @@
         <v>524</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>536</v>
@@ -6917,7 +6920,7 @@
         <v>524</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>533</v>
@@ -6955,7 +6958,7 @@
         <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>245</v>
@@ -6972,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>176</v>
@@ -6989,7 +6992,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>554</v>
@@ -7006,7 +7009,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>555</v>
@@ -7023,7 +7026,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>556</v>
@@ -7040,7 +7043,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>557</v>
@@ -7057,7 +7060,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>558</v>
@@ -7074,7 +7077,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>177</v>
@@ -7091,7 +7094,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>562</v>
@@ -7108,7 +7111,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>561</v>
@@ -7125,7 +7128,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>560</v>
@@ -7142,7 +7145,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>559</v>
@@ -7159,7 +7162,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>544</v>
@@ -7176,7 +7179,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>179</v>
@@ -7193,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>532</v>
@@ -7210,7 +7213,7 @@
         <v>528</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>515</v>
@@ -7223,7 +7226,7 @@
         <v>511</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>176</v>
@@ -7236,7 +7239,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>180</v>
@@ -7253,7 +7256,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>181</v>
@@ -7270,7 +7273,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>182</v>
@@ -7287,7 +7290,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>183</v>
@@ -7304,7 +7307,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>184</v>
@@ -7321,7 +7324,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>176</v>
@@ -7338,7 +7341,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>185</v>
@@ -7355,7 +7358,7 @@
         <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>186</v>
@@ -7372,7 +7375,7 @@
         <v>44</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>187</v>
@@ -7389,7 +7392,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>188</v>
@@ -7423,7 +7426,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>190</v>
@@ -7440,7 +7443,7 @@
         <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>247</v>
@@ -7457,7 +7460,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>246</v>
@@ -7474,7 +7477,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>191</v>
@@ -7491,7 +7494,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>192</v>
@@ -7508,7 +7511,7 @@
         <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>182</v>
@@ -7525,7 +7528,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>193</v>
@@ -7542,7 +7545,7 @@
         <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>194</v>
@@ -7559,7 +7562,7 @@
         <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>195</v>
@@ -7576,7 +7579,7 @@
         <v>66</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>196</v>
@@ -7593,7 +7596,7 @@
         <v>68</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>197</v>
@@ -7610,7 +7613,7 @@
         <v>545</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>198</v>
@@ -7627,7 +7630,7 @@
         <v>71</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>199</v>
@@ -7644,7 +7647,7 @@
         <v>73</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>200</v>
@@ -7661,7 +7664,7 @@
         <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>201</v>
@@ -7678,7 +7681,7 @@
         <v>77</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>202</v>
@@ -7695,7 +7698,7 @@
         <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>203</v>
@@ -7712,7 +7715,7 @@
         <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>204</v>
@@ -7729,7 +7732,7 @@
         <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>205</v>
@@ -7746,7 +7749,7 @@
         <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>206</v>
@@ -7763,7 +7766,7 @@
         <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>207</v>
@@ -7780,7 +7783,7 @@
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>208</v>
@@ -7797,7 +7800,7 @@
         <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>209</v>
@@ -7814,7 +7817,7 @@
         <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>210</v>
@@ -7831,7 +7834,7 @@
         <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>211</v>
@@ -7848,7 +7851,7 @@
         <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>212</v>
@@ -7865,7 +7868,7 @@
         <v>100</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>213</v>
@@ -7882,7 +7885,7 @@
         <v>102</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>214</v>
@@ -7899,7 +7902,7 @@
         <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>201</v>
@@ -7916,7 +7919,7 @@
         <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>215</v>
@@ -7933,7 +7936,7 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>216</v>
@@ -7950,7 +7953,7 @@
         <v>109</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>217</v>
@@ -7967,7 +7970,7 @@
         <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>531</v>
@@ -7982,7 +7985,7 @@
         <v>113</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>218</v>
@@ -7999,7 +8002,7 @@
         <v>115</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>200</v>
@@ -8016,7 +8019,7 @@
         <v>116</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>178</v>
@@ -8031,7 +8034,7 @@
         <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>219</v>
@@ -8046,7 +8049,7 @@
         <v>119</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>220</v>
@@ -8063,7 +8066,7 @@
         <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>221</v>
@@ -8080,7 +8083,7 @@
         <v>123</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>222</v>
@@ -8097,7 +8100,7 @@
         <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>223</v>
@@ -8114,7 +8117,7 @@
         <v>127</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>224</v>
@@ -8131,7 +8134,7 @@
         <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>225</v>
@@ -8148,7 +8151,7 @@
         <v>131</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>226</v>
@@ -8165,7 +8168,7 @@
         <v>133</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>227</v>
@@ -8182,7 +8185,7 @@
         <v>135</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>228</v>
@@ -8199,7 +8202,7 @@
         <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>229</v>
@@ -8214,7 +8217,7 @@
         <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>230</v>
@@ -8231,7 +8234,7 @@
         <v>141</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>231</v>
@@ -8248,7 +8251,7 @@
         <v>542</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>43</v>
@@ -8261,7 +8264,7 @@
         <v>517</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>518</v>
@@ -8278,7 +8281,7 @@
         <v>538</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>540</v>
@@ -8291,7 +8294,7 @@
         <v>539</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>541</v>
@@ -8318,7 +8321,7 @@
         <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>232</v>
@@ -8335,7 +8338,7 @@
         <v>148</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>549</v>
@@ -8352,7 +8355,7 @@
         <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>233</v>
@@ -8369,7 +8372,7 @@
         <v>152</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>234</v>
@@ -8386,7 +8389,7 @@
         <v>154</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>548</v>
@@ -8403,7 +8406,7 @@
         <v>156</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>235</v>
@@ -8420,7 +8423,7 @@
         <v>158</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>546</v>
@@ -8437,7 +8440,7 @@
         <v>160</v>
       </c>
       <c r="B90" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>236</v>
@@ -8454,7 +8457,7 @@
         <v>162</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>237</v>
@@ -8471,7 +8474,7 @@
         <v>163</v>
       </c>
       <c r="B92" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>547</v>
@@ -8488,7 +8491,7 @@
         <v>165</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>543</v>
@@ -8505,7 +8508,7 @@
         <v>167</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>224</v>
@@ -8522,7 +8525,7 @@
         <v>168</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>521</v>
@@ -8539,7 +8542,7 @@
         <v>170</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>238</v>
@@ -8556,7 +8559,7 @@
         <v>172</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>239</v>
@@ -8573,7 +8576,7 @@
         <v>174</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>240</v>
@@ -8590,7 +8593,7 @@
         <v>523</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>536</v>
@@ -8607,7 +8610,7 @@
         <v>529</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>533</v>
